--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_22_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_22_29.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1157790.27064609</v>
+        <v>1154332.35023383</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11667626.59505649</v>
+        <v>11667626.5950565</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14722077.73795572</v>
+        <v>14722077.73795571</v>
       </c>
     </row>
     <row r="9">
@@ -1379,16 +1379,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>121.2263484071796</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>135.1621086286985</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>135.1621086286985</v>
       </c>
       <c r="I11" t="n">
-        <v>132.9865455016763</v>
+        <v>95.44040566615485</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,10 +1415,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>23.61037961400275</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>135.1621086286985</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>135.1621086286985</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>135.1621086286985</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1458,64 +1458,64 @@
         <v>135.1621086286985</v>
       </c>
       <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>66.68096432240073</v>
+      </c>
+      <c r="I12" t="n">
+        <v>52.36982095775688</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
         <v>135.1621086286985</v>
-      </c>
-      <c r="G12" t="n">
-        <v>135.1621086286985</v>
-      </c>
-      <c r="H12" t="n">
-        <v>101.849069740976</v>
-      </c>
-      <c r="I12" t="n">
-        <v>17.20171553918158</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1534,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>135.1621086286985</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>135.1621086286985</v>
@@ -1543,10 +1543,10 @@
         <v>135.1621086286985</v>
       </c>
       <c r="H13" t="n">
+        <v>135.1621086286985</v>
+      </c>
+      <c r="I13" t="n">
         <v>119.0507852801576</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1616,13 +1616,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>121.2263484071797</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>135.1621086286985</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>135.1621086286985</v>
       </c>
       <c r="I14" t="n">
         <v>132.9865455016763</v>
@@ -1652,16 +1652,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>23.61037961400275</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>97.6159687931769</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>135.1621086286985</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>135.1621086286985</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1701,10 +1701,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>101.849069740976</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>52.36982095775688</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,28 +1731,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>33.3869361696335</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>66.6070670404897</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>135.1621086286985</v>
       </c>
       <c r="U15" t="n">
-        <v>119.0507852801575</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
         <v>135.1621086286985</v>
-      </c>
-      <c r="W15" t="n">
-        <v>135.1621086286985</v>
-      </c>
-      <c r="X15" t="n">
-        <v>135.1621086286985</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1771,16 +1771,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>135.1621086286985</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>135.1621086286985</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>135.1621086286985</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>119.0507852801576</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>119.0507852801575</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>135.1621086286985</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>135.1621086286985</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>135.1621086286985</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1853,55 +1853,55 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>121.2263484071796</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>95.44040566615485</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>23.61037961400275</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
         <v>135.1621086286985</v>
       </c>
-      <c r="H17" t="n">
+      <c r="U17" t="n">
         <v>135.1621086286985</v>
       </c>
-      <c r="I17" t="n">
-        <v>132.9865455016763</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>135.1621086286985</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1932,10 +1932,10 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>135.1621086286985</v>
       </c>
       <c r="G18" t="n">
-        <v>66.60706704048967</v>
+        <v>135.1621086286985</v>
       </c>
       <c r="H18" t="n">
         <v>101.849069740976</v>
@@ -1971,10 +1971,10 @@
         <v>33.3869361696335</v>
       </c>
       <c r="S18" t="n">
-        <v>135.1621086286985</v>
+        <v>66.6070670404897</v>
       </c>
       <c r="T18" t="n">
-        <v>135.1621086286985</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>108.3857039609336</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>135.1621086286985</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>128.3368119077585</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2044,10 +2044,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>10.66508131922394</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>125.8760820010975</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2062,13 +2062,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>135.1621086286985</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>135.1621086286985</v>
       </c>
       <c r="Y19" t="n">
-        <v>135.1621086286985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
         <v>135.1621086286985</v>
       </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
         <v>135.1621086286985</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>95.44040566615485</v>
       </c>
       <c r="I20" t="n">
-        <v>119.0507852801576</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>23.61037961400275</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2144,10 +2144,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>135.1621086286985</v>
       </c>
       <c r="Y20" t="n">
-        <v>135.1621086286985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2157,10 +2157,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>135.1621086286985</v>
       </c>
       <c r="C21" t="n">
-        <v>85.66384911052408</v>
+        <v>135.1621086286985</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>33.3869361696335</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>119.0507852801576</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2223,10 +2223,10 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>135.1621086286985</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>135.1621086286985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>135.1621086286985</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2251,61 +2251,61 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
         <v>135.1621086286985</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>119.0507852801576</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="n">
         <v>135.1621086286985</v>
-      </c>
-      <c r="T22" t="n">
-        <v>119.0507852801575</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>135.1621086286985</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2315,29 +2315,29 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>150.0512004889502</v>
+      </c>
+      <c r="H23" t="n">
+        <v>150.0512004889502</v>
+      </c>
+      <c r="I23" t="n">
         <v>132.1650973906673</v>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
       <c r="J23" t="n">
         <v>0</v>
       </c>
@@ -2369,19 +2369,19 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
         <v>150.0512004889502</v>
-      </c>
-      <c r="U23" t="n">
-        <v>150.0512004889502</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>150.0512004889502</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2445,22 +2445,22 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
         <v>150.0512004889502</v>
       </c>
-      <c r="T24" t="n">
-        <v>0</v>
-      </c>
-      <c r="U24" t="n">
+      <c r="W24" t="n">
+        <v>137.1470854862336</v>
+      </c>
+      <c r="X24" t="n">
         <v>150.0512004889502</v>
-      </c>
-      <c r="V24" t="n">
-        <v>0</v>
-      </c>
-      <c r="W24" t="n">
-        <v>150.0512004889502</v>
-      </c>
-      <c r="X24" t="n">
-        <v>132.1650973906673</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2488,16 +2488,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>150.0512004889502</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>150.0512004889502</v>
       </c>
       <c r="I25" t="n">
-        <v>105.1813338806671</v>
+        <v>121.5000160714433</v>
       </c>
       <c r="J25" t="n">
-        <v>29.61584356810882</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>10.66508131922394</v>
       </c>
       <c r="R25" t="n">
-        <v>136.7540391116176</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2533,7 +2533,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>150.0512004889502</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>150.0512004889502</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>150.0512004889502</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2561,16 +2561,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>150.0512004889501</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>150.0512004889501</v>
       </c>
       <c r="G26" t="n">
-        <v>150.0512004889502</v>
+        <v>132.1650973906673</v>
       </c>
       <c r="H26" t="n">
-        <v>132.1650973906674</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2606,13 +2606,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>150.0512004889501</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>150.0512004889502</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2631,22 +2631,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>150.0512004889501</v>
       </c>
       <c r="C27" t="n">
-        <v>150.0512004889502</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0.8789967449025948</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>150.0512004889502</v>
+        <v>132.1650973906673</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>136.2680887413311</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2688,13 +2688,13 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>150.0512004889501</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>150.0512004889501</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2713,19 +2713,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>150.0512004889501</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>133.600824861405</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>132.1650973906674</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2764,13 +2764,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>150.0512004889502</v>
+        <v>150.0512004889501</v>
       </c>
       <c r="U28" t="n">
-        <v>150.0512004889502</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>150.0512004889502</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2792,13 +2792,13 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>132.1650973906674</v>
+        <v>150.0512004889501</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>150.0512004889502</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2810,7 +2810,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>108.5547177766645</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,10 +2837,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>23.61037961400277</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>150.0512004889501</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2849,16 +2849,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>150.0512004889501</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>150.0512004889502</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>150.0512004889502</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2868,13 +2868,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>150.0512004889502</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>150.0512004889502</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>132.1650973906674</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2919,16 +2919,16 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>132.1650973906673</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>150.0512004889501</v>
       </c>
       <c r="U30" t="n">
-        <v>150.0512004889502</v>
+        <v>150.0512004889501</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>150.0512004889501</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -2950,10 +2950,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>150.0512004889501</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2965,13 +2965,13 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>150.0512004889502</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>128.3368119077585</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>6.460365541017515</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>10.66508131922394</v>
       </c>
       <c r="R31" t="n">
-        <v>136.7540391116176</v>
+        <v>122.9357435421811</v>
       </c>
       <c r="S31" t="n">
-        <v>150.0512004889502</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3010,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>150.0512004889501</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3026,10 +3026,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>150.0512004889501</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>132.1650973906673</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3074,28 +3074,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>23.61037961400275</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>150.0512004889502</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>108.5547177766646</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>150.0512004889502</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>150.0512004889502</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>150.0512004889501</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>150.0512004889501</v>
       </c>
     </row>
     <row r="33">
@@ -3108,19 +3108,19 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>150.0512004889502</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>150.0512004889502</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>35.29801574525767</v>
+        <v>136.2680887413311</v>
       </c>
       <c r="H33" t="n">
         <v>101.849069740976</v>
@@ -3156,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>150.0512004889501</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -3171,10 +3171,10 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>44.0991393973102</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>150.0512004889501</v>
       </c>
     </row>
     <row r="34">
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>150.0512004889501</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3199,13 +3199,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>150.0512004889502</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>145.462258768</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>128.3368119077585</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3229,16 +3229,16 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>3.828285482908785</v>
       </c>
       <c r="R34" t="n">
-        <v>136.7540391116176</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>150.0512004889502</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3247,10 +3247,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>150.0512004889501</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>150.0512004889501</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3269,19 +3269,19 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>135.1621086286985</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>119.0507852801576</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>135.1621086286984</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,22 +3314,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>119.0507852801575</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>135.1621086286985</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>135.1621086286984</v>
       </c>
       <c r="X35" t="n">
-        <v>135.1621086286985</v>
+        <v>135.1621086286984</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3345,13 +3345,13 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>135.1621086286985</v>
+        <v>135.1621086286984</v>
       </c>
       <c r="D36" t="n">
-        <v>135.1621086286985</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>135.1621086286984</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3393,7 +3393,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>119.0507852801575</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3408,10 +3408,10 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>135.1621086286985</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>119.0507852801576</v>
+        <v>135.1621086286984</v>
       </c>
     </row>
     <row r="37">
@@ -3424,25 +3424,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>135.1621086286985</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>135.1621086286985</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>108.3857039609336</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>125.8760820010973</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>128.3368119077585</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>10.66508131922394</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -3475,13 +3475,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>135.1621086286985</v>
+        <v>135.1621086286984</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>135.1621086286984</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3503,19 +3503,19 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>119.0507852801575</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>135.1621086286985</v>
+        <v>135.1621086286984</v>
       </c>
       <c r="F38" t="n">
-        <v>135.1621086286985</v>
+        <v>135.1621086286984</v>
       </c>
       <c r="G38" t="n">
-        <v>135.1621086286985</v>
+        <v>135.1621086286984</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>23.61037961400275</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3563,7 +3563,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>95.4404056661548</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3579,28 +3579,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>119.0507852801575</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>135.1621086286984</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>66.68096432240073</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>135.1621086286984</v>
       </c>
       <c r="G39" t="n">
-        <v>135.1621086286985</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>52.36982095775688</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3633,7 +3633,7 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>135.1621086286985</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -3645,10 +3645,10 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>135.1621086286985</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>135.1621086286984</v>
       </c>
     </row>
     <row r="40">
@@ -3679,10 +3679,10 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>78.76986039282481</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>29.61584356810882</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3703,31 +3703,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>10.66508131922394</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>135.1621086286985</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>135.1621086286985</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>135.1621086286985</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>135.1621086286984</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>135.1621086286984</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>135.1621086286984</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>119.0507852801574</v>
       </c>
     </row>
     <row r="41">
@@ -3752,10 +3752,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>119.0507852801575</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>135.1621086286984</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,19 +3788,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>135.1621086286985</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>135.1621086286985</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>135.1621086286985</v>
+        <v>135.1621086286984</v>
       </c>
       <c r="V41" t="n">
-        <v>119.0507852801576</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>135.1621086286984</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3816,19 +3816,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>119.0507852801574</v>
       </c>
       <c r="C42" t="n">
-        <v>119.0507852801575</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>135.1621086286985</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>135.1621086286985</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>135.1621086286985</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3867,7 +3867,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>135.1621086286984</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -3876,10 +3876,10 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>135.1621086286984</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>135.1621086286984</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>135.1621086286985</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>135.1621086286985</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>135.1621086286985</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>119.0507852801576</v>
+        <v>135.1621086286984</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>135.1621086286984</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>135.1621086286984</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>119.0507852801574</v>
       </c>
     </row>
     <row r="44">
@@ -3974,19 +3974,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>135.1621086286984</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>119.0507852801574</v>
       </c>
       <c r="D44" t="n">
-        <v>119.0507852801576</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>135.1621086286985</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4037,13 +4037,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>135.1621086286984</v>
       </c>
       <c r="X44" t="n">
-        <v>135.1621086286985</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>135.1621086286985</v>
+        <v>135.1621086286984</v>
       </c>
     </row>
     <row r="45">
@@ -4053,28 +4053,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>135.1621086286984</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>135.1621086286984</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>135.1621086286985</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>99.99400321012318</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>135.1621086286984</v>
       </c>
       <c r="H45" t="n">
-        <v>101.849069740976</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>52.36982095775688</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4116,13 +4116,13 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>135.1621086286985</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>119.0507852801575</v>
       </c>
     </row>
     <row r="46">
@@ -4138,13 +4138,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>135.1621086286985</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>135.1621086286985</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4177,19 +4177,19 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>10.66508131922394</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>135.1621086286985</v>
+        <v>135.1621086286984</v>
       </c>
       <c r="S46" t="n">
-        <v>108.3857039609336</v>
+        <v>135.1621086286984</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>135.1621086286984</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>119.0507852801574</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>540.6484345147938</v>
+        <v>243.7448013113599</v>
       </c>
       <c r="C11" t="n">
-        <v>540.6484345147938</v>
+        <v>243.7448013113599</v>
       </c>
       <c r="D11" t="n">
-        <v>540.6484345147938</v>
+        <v>243.7448013113599</v>
       </c>
       <c r="E11" t="n">
-        <v>540.6484345147938</v>
+        <v>243.7448013113599</v>
       </c>
       <c r="F11" t="n">
-        <v>418.1975775378447</v>
+        <v>243.7448013113599</v>
       </c>
       <c r="G11" t="n">
-        <v>281.6701950846139</v>
+        <v>243.7448013113599</v>
       </c>
       <c r="H11" t="n">
-        <v>145.1428126313831</v>
+        <v>107.2174188581291</v>
       </c>
       <c r="I11" t="n">
         <v>10.81296869029588</v>
@@ -5063,28 +5063,28 @@
         <v>540.6484345147938</v>
       </c>
       <c r="R11" t="n">
-        <v>540.6484345147938</v>
+        <v>516.7995662178214</v>
       </c>
       <c r="S11" t="n">
-        <v>540.6484345147938</v>
+        <v>380.2721837645906</v>
       </c>
       <c r="T11" t="n">
-        <v>540.6484345147938</v>
+        <v>380.2721837645906</v>
       </c>
       <c r="U11" t="n">
-        <v>540.6484345147938</v>
+        <v>380.2721837645906</v>
       </c>
       <c r="V11" t="n">
-        <v>540.6484345147938</v>
+        <v>243.7448013113599</v>
       </c>
       <c r="W11" t="n">
-        <v>540.6484345147938</v>
+        <v>243.7448013113599</v>
       </c>
       <c r="X11" t="n">
-        <v>540.6484345147938</v>
+        <v>243.7448013113599</v>
       </c>
       <c r="Y11" t="n">
-        <v>540.6484345147938</v>
+        <v>243.7448013113599</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>540.6484345147938</v>
+        <v>267.5936696083323</v>
       </c>
       <c r="C12" t="n">
-        <v>540.6484345147938</v>
+        <v>267.5936696083323</v>
       </c>
       <c r="D12" t="n">
-        <v>540.6484345147938</v>
+        <v>267.5936696083323</v>
       </c>
       <c r="E12" t="n">
-        <v>404.1210520615631</v>
+        <v>131.0662871551015</v>
       </c>
       <c r="F12" t="n">
-        <v>267.5936696083323</v>
+        <v>131.0662871551015</v>
       </c>
       <c r="G12" t="n">
         <v>131.0662871551015</v>
       </c>
       <c r="H12" t="n">
-        <v>28.18843893189343</v>
+        <v>63.71177773853515</v>
       </c>
       <c r="I12" t="n">
         <v>10.81296869029588</v>
@@ -5130,7 +5130,7 @@
         <v>269.3237910487287</v>
       </c>
       <c r="N12" t="n">
-        <v>403.1342785911402</v>
+        <v>357.8342546306301</v>
       </c>
       <c r="O12" t="n">
         <v>469.9770337958942</v>
@@ -5163,7 +5163,7 @@
         <v>540.6484345147938</v>
       </c>
       <c r="Y12" t="n">
-        <v>540.6484345147938</v>
+        <v>404.1210520615631</v>
       </c>
     </row>
     <row r="13">
@@ -5182,16 +5182,16 @@
         <v>540.6484345147938</v>
       </c>
       <c r="E13" t="n">
+        <v>540.6484345147938</v>
+      </c>
+      <c r="F13" t="n">
         <v>404.1210520615631</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>267.5936696083323</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>131.0662871551015</v>
-      </c>
-      <c r="H13" t="n">
-        <v>10.81296869029588</v>
       </c>
       <c r="I13" t="n">
         <v>10.81296869029588</v>
@@ -5200,19 +5200,19 @@
         <v>10.81296869029588</v>
       </c>
       <c r="K13" t="n">
-        <v>92.46855607992539</v>
+        <v>10.81296869029588</v>
       </c>
       <c r="L13" t="n">
-        <v>226.2790436223369</v>
+        <v>144.6234562327074</v>
       </c>
       <c r="M13" t="n">
-        <v>360.0895311647483</v>
+        <v>278.4339437751188</v>
       </c>
       <c r="N13" t="n">
-        <v>493.9000187071598</v>
+        <v>301.5778289581456</v>
       </c>
       <c r="O13" t="n">
-        <v>540.6484345147938</v>
+        <v>435.388316500557</v>
       </c>
       <c r="P13" t="n">
         <v>540.6484345147938</v>
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>145.1428126313831</v>
+        <v>540.648434514794</v>
       </c>
       <c r="C14" t="n">
-        <v>145.1428126313831</v>
+        <v>540.648434514794</v>
       </c>
       <c r="D14" t="n">
-        <v>145.1428126313831</v>
+        <v>540.648434514794</v>
       </c>
       <c r="E14" t="n">
-        <v>145.1428126313831</v>
+        <v>540.648434514794</v>
       </c>
       <c r="F14" t="n">
-        <v>145.1428126313831</v>
+        <v>418.1975775378448</v>
       </c>
       <c r="G14" t="n">
-        <v>145.1428126313831</v>
+        <v>281.670195084614</v>
       </c>
       <c r="H14" t="n">
         <v>145.1428126313831</v>
@@ -5285,43 +5285,43 @@
         <v>126.6505086157217</v>
       </c>
       <c r="M14" t="n">
-        <v>248.0114412118369</v>
+        <v>248.011441211837</v>
       </c>
       <c r="N14" t="n">
-        <v>375.9499289551388</v>
+        <v>375.9499289551389</v>
       </c>
       <c r="O14" t="n">
-        <v>483.4233537753015</v>
+        <v>483.4233537753016</v>
       </c>
       <c r="P14" t="n">
-        <v>540.6484345147938</v>
+        <v>540.648434514794</v>
       </c>
       <c r="Q14" t="n">
-        <v>540.6484345147938</v>
+        <v>540.648434514794</v>
       </c>
       <c r="R14" t="n">
-        <v>516.7995662178214</v>
+        <v>540.648434514794</v>
       </c>
       <c r="S14" t="n">
-        <v>418.1975775378447</v>
+        <v>540.648434514794</v>
       </c>
       <c r="T14" t="n">
-        <v>281.6701950846139</v>
+        <v>540.648434514794</v>
       </c>
       <c r="U14" t="n">
-        <v>145.1428126313831</v>
+        <v>540.648434514794</v>
       </c>
       <c r="V14" t="n">
-        <v>145.1428126313831</v>
+        <v>540.648434514794</v>
       </c>
       <c r="W14" t="n">
-        <v>145.1428126313831</v>
+        <v>540.648434514794</v>
       </c>
       <c r="X14" t="n">
-        <v>145.1428126313831</v>
+        <v>540.648434514794</v>
       </c>
       <c r="Y14" t="n">
-        <v>145.1428126313831</v>
+        <v>540.648434514794</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>10.81296869029588</v>
+        <v>166.5896259617433</v>
       </c>
       <c r="C15" t="n">
-        <v>10.81296869029588</v>
+        <v>166.5896259617433</v>
       </c>
       <c r="D15" t="n">
-        <v>10.81296869029588</v>
+        <v>166.5896259617433</v>
       </c>
       <c r="E15" t="n">
-        <v>10.81296869029588</v>
+        <v>166.5896259617433</v>
       </c>
       <c r="F15" t="n">
-        <v>10.81296869029588</v>
+        <v>166.5896259617433</v>
       </c>
       <c r="G15" t="n">
-        <v>10.81296869029588</v>
+        <v>166.5896259617433</v>
       </c>
       <c r="H15" t="n">
-        <v>10.81296869029588</v>
+        <v>63.71177773853515</v>
       </c>
       <c r="I15" t="n">
         <v>10.81296869029588</v>
@@ -5358,7 +5358,7 @@
         <v>10.81296869029588</v>
       </c>
       <c r="K15" t="n">
-        <v>46.27146922083023</v>
+        <v>46.27146922083024</v>
       </c>
       <c r="L15" t="n">
         <v>140.2723401900406</v>
@@ -5367,40 +5367,40 @@
         <v>269.3237910487287</v>
       </c>
       <c r="N15" t="n">
-        <v>403.1342785911402</v>
+        <v>357.8342546306302</v>
       </c>
       <c r="O15" t="n">
-        <v>469.9770337958942</v>
+        <v>469.9770337958943</v>
       </c>
       <c r="P15" t="n">
-        <v>540.6484345147938</v>
+        <v>540.648434514794</v>
       </c>
       <c r="Q15" t="n">
-        <v>540.6484345147938</v>
+        <v>540.648434514794</v>
       </c>
       <c r="R15" t="n">
-        <v>540.6484345147938</v>
+        <v>506.9242565656692</v>
       </c>
       <c r="S15" t="n">
-        <v>540.6484345147938</v>
+        <v>439.6443908682049</v>
       </c>
       <c r="T15" t="n">
-        <v>540.6484345147938</v>
+        <v>303.1170084149741</v>
       </c>
       <c r="U15" t="n">
-        <v>420.3951160499882</v>
+        <v>303.1170084149741</v>
       </c>
       <c r="V15" t="n">
-        <v>283.8677335967575</v>
+        <v>303.1170084149741</v>
       </c>
       <c r="W15" t="n">
-        <v>147.3403511435267</v>
+        <v>303.1170084149741</v>
       </c>
       <c r="X15" t="n">
-        <v>10.81296869029588</v>
+        <v>303.1170084149741</v>
       </c>
       <c r="Y15" t="n">
-        <v>10.81296869029588</v>
+        <v>166.5896259617433</v>
       </c>
     </row>
     <row r="16">
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>10.81296869029588</v>
+        <v>540.648434514794</v>
       </c>
       <c r="C16" t="n">
-        <v>10.81296869029588</v>
+        <v>540.648434514794</v>
       </c>
       <c r="D16" t="n">
-        <v>10.81296869029588</v>
+        <v>540.648434514794</v>
       </c>
       <c r="E16" t="n">
-        <v>10.81296869029588</v>
+        <v>404.1210520615631</v>
       </c>
       <c r="F16" t="n">
-        <v>10.81296869029588</v>
+        <v>267.5936696083323</v>
       </c>
       <c r="G16" t="n">
-        <v>10.81296869029588</v>
+        <v>131.0662871551015</v>
       </c>
       <c r="H16" t="n">
         <v>10.81296869029588</v>
@@ -5440,46 +5440,46 @@
         <v>10.81296869029588</v>
       </c>
       <c r="L16" t="n">
-        <v>139.2169718875595</v>
+        <v>144.6234562327074</v>
       </c>
       <c r="M16" t="n">
-        <v>273.0274594299709</v>
+        <v>167.7673414157342</v>
       </c>
       <c r="N16" t="n">
-        <v>406.8379469723824</v>
+        <v>301.5778289581457</v>
       </c>
       <c r="O16" t="n">
-        <v>540.6484345147938</v>
+        <v>435.3883165005572</v>
       </c>
       <c r="P16" t="n">
-        <v>540.6484345147938</v>
+        <v>540.648434514794</v>
       </c>
       <c r="Q16" t="n">
-        <v>540.6484345147938</v>
+        <v>540.648434514794</v>
       </c>
       <c r="R16" t="n">
-        <v>420.3951160499882</v>
+        <v>540.648434514794</v>
       </c>
       <c r="S16" t="n">
-        <v>283.8677335967575</v>
+        <v>540.648434514794</v>
       </c>
       <c r="T16" t="n">
-        <v>147.3403511435267</v>
+        <v>540.648434514794</v>
       </c>
       <c r="U16" t="n">
-        <v>10.81296869029588</v>
+        <v>540.648434514794</v>
       </c>
       <c r="V16" t="n">
-        <v>10.81296869029588</v>
+        <v>540.648434514794</v>
       </c>
       <c r="W16" t="n">
-        <v>10.81296869029588</v>
+        <v>540.648434514794</v>
       </c>
       <c r="X16" t="n">
-        <v>10.81296869029588</v>
+        <v>540.648434514794</v>
       </c>
       <c r="Y16" t="n">
-        <v>10.81296869029588</v>
+        <v>540.648434514794</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>540.6484345147938</v>
+        <v>107.2174188581291</v>
       </c>
       <c r="C17" t="n">
-        <v>540.6484345147938</v>
+        <v>107.2174188581291</v>
       </c>
       <c r="D17" t="n">
-        <v>540.6484345147938</v>
+        <v>107.2174188581291</v>
       </c>
       <c r="E17" t="n">
-        <v>540.6484345147938</v>
+        <v>107.2174188581291</v>
       </c>
       <c r="F17" t="n">
-        <v>418.1975775378447</v>
+        <v>107.2174188581291</v>
       </c>
       <c r="G17" t="n">
-        <v>281.6701950846139</v>
+        <v>107.2174188581291</v>
       </c>
       <c r="H17" t="n">
-        <v>145.1428126313831</v>
+        <v>107.2174188581291</v>
       </c>
       <c r="I17" t="n">
         <v>10.81296869029588</v>
@@ -5516,7 +5516,7 @@
         <v>10.81296869029588</v>
       </c>
       <c r="K17" t="n">
-        <v>46.04290076965079</v>
+        <v>46.04290076965081</v>
       </c>
       <c r="L17" t="n">
         <v>126.6505086157217</v>
@@ -5525,40 +5525,40 @@
         <v>248.0114412118369</v>
       </c>
       <c r="N17" t="n">
-        <v>375.9499289551388</v>
+        <v>375.9499289551389</v>
       </c>
       <c r="O17" t="n">
-        <v>483.4233537753015</v>
+        <v>483.4233537753016</v>
       </c>
       <c r="P17" t="n">
-        <v>540.6484345147938</v>
+        <v>540.648434514794</v>
       </c>
       <c r="Q17" t="n">
-        <v>540.6484345147938</v>
+        <v>540.648434514794</v>
       </c>
       <c r="R17" t="n">
-        <v>540.6484345147938</v>
+        <v>516.7995662178215</v>
       </c>
       <c r="S17" t="n">
-        <v>540.6484345147938</v>
+        <v>516.7995662178215</v>
       </c>
       <c r="T17" t="n">
-        <v>540.6484345147938</v>
+        <v>380.2721837645907</v>
       </c>
       <c r="U17" t="n">
-        <v>540.6484345147938</v>
+        <v>243.7448013113599</v>
       </c>
       <c r="V17" t="n">
-        <v>540.6484345147938</v>
+        <v>107.2174188581291</v>
       </c>
       <c r="W17" t="n">
-        <v>540.6484345147938</v>
+        <v>107.2174188581291</v>
       </c>
       <c r="X17" t="n">
-        <v>540.6484345147938</v>
+        <v>107.2174188581291</v>
       </c>
       <c r="Y17" t="n">
-        <v>540.6484345147938</v>
+        <v>107.2174188581291</v>
       </c>
     </row>
     <row r="18">
@@ -5568,19 +5568,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>233.8694916592076</v>
+        <v>439.6443908682049</v>
       </c>
       <c r="C18" t="n">
-        <v>233.8694916592076</v>
+        <v>439.6443908682049</v>
       </c>
       <c r="D18" t="n">
-        <v>233.8694916592076</v>
+        <v>439.6443908682049</v>
       </c>
       <c r="E18" t="n">
-        <v>233.8694916592076</v>
+        <v>439.6443908682049</v>
       </c>
       <c r="F18" t="n">
-        <v>233.8694916592076</v>
+        <v>303.1170084149741</v>
       </c>
       <c r="G18" t="n">
         <v>166.5896259617433</v>
@@ -5595,49 +5595,49 @@
         <v>10.81296869029588</v>
       </c>
       <c r="K18" t="n">
-        <v>10.81296869029588</v>
+        <v>46.27146922083024</v>
       </c>
       <c r="L18" t="n">
-        <v>94.97231622953049</v>
+        <v>140.2723401900406</v>
       </c>
       <c r="M18" t="n">
-        <v>224.0237670882186</v>
+        <v>269.3237910487287</v>
       </c>
       <c r="N18" t="n">
-        <v>357.8342546306301</v>
+        <v>357.8342546306302</v>
       </c>
       <c r="O18" t="n">
-        <v>469.9770337958942</v>
+        <v>469.9770337958943</v>
       </c>
       <c r="P18" t="n">
-        <v>540.6484345147938</v>
+        <v>540.648434514794</v>
       </c>
       <c r="Q18" t="n">
-        <v>540.6484345147938</v>
+        <v>540.648434514794</v>
       </c>
       <c r="R18" t="n">
-        <v>506.9242565656691</v>
+        <v>506.9242565656692</v>
       </c>
       <c r="S18" t="n">
-        <v>370.3968741124384</v>
+        <v>439.6443908682049</v>
       </c>
       <c r="T18" t="n">
-        <v>233.8694916592076</v>
+        <v>439.6443908682049</v>
       </c>
       <c r="U18" t="n">
-        <v>233.8694916592076</v>
+        <v>439.6443908682049</v>
       </c>
       <c r="V18" t="n">
-        <v>233.8694916592076</v>
+        <v>439.6443908682049</v>
       </c>
       <c r="W18" t="n">
-        <v>233.8694916592076</v>
+        <v>439.6443908682049</v>
       </c>
       <c r="X18" t="n">
-        <v>233.8694916592076</v>
+        <v>439.6443908682049</v>
       </c>
       <c r="Y18" t="n">
-        <v>233.8694916592076</v>
+        <v>439.6443908682049</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>10.81296869029588</v>
+        <v>276.973494484697</v>
       </c>
       <c r="C19" t="n">
-        <v>10.81296869029588</v>
+        <v>276.973494484697</v>
       </c>
       <c r="D19" t="n">
-        <v>10.81296869029588</v>
+        <v>276.973494484697</v>
       </c>
       <c r="E19" t="n">
-        <v>10.81296869029588</v>
+        <v>276.973494484697</v>
       </c>
       <c r="F19" t="n">
-        <v>10.81296869029588</v>
+        <v>140.4461120314661</v>
       </c>
       <c r="G19" t="n">
-        <v>10.81296869029588</v>
+        <v>140.4461120314661</v>
       </c>
       <c r="H19" t="n">
-        <v>10.81296869029588</v>
+        <v>140.4461120314661</v>
       </c>
       <c r="I19" t="n">
         <v>10.81296869029588</v>
@@ -5677,46 +5677,46 @@
         <v>10.81296869029588</v>
       </c>
       <c r="L19" t="n">
-        <v>144.6234562327074</v>
+        <v>139.2169718875595</v>
       </c>
       <c r="M19" t="n">
-        <v>167.7673414157341</v>
+        <v>273.027459429971</v>
       </c>
       <c r="N19" t="n">
-        <v>301.5778289581456</v>
+        <v>406.8379469723825</v>
       </c>
       <c r="O19" t="n">
-        <v>435.388316500557</v>
+        <v>540.648434514794</v>
       </c>
       <c r="P19" t="n">
-        <v>540.6484345147938</v>
+        <v>540.648434514794</v>
       </c>
       <c r="Q19" t="n">
-        <v>529.8756251014363</v>
+        <v>540.648434514794</v>
       </c>
       <c r="R19" t="n">
-        <v>529.8756251014363</v>
+        <v>413.5008769379278</v>
       </c>
       <c r="S19" t="n">
-        <v>529.8756251014363</v>
+        <v>413.5008769379278</v>
       </c>
       <c r="T19" t="n">
-        <v>529.8756251014363</v>
+        <v>413.5008769379278</v>
       </c>
       <c r="U19" t="n">
-        <v>529.8756251014363</v>
+        <v>413.5008769379278</v>
       </c>
       <c r="V19" t="n">
-        <v>529.8756251014363</v>
+        <v>413.5008769379278</v>
       </c>
       <c r="W19" t="n">
-        <v>393.3482426482055</v>
+        <v>413.5008769379278</v>
       </c>
       <c r="X19" t="n">
-        <v>256.8208601949748</v>
+        <v>276.973494484697</v>
       </c>
       <c r="Y19" t="n">
-        <v>120.293477741744</v>
+        <v>276.973494484697</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>267.5936696083323</v>
+        <v>380.2721837645907</v>
       </c>
       <c r="C20" t="n">
-        <v>267.5936696083323</v>
+        <v>380.2721837645907</v>
       </c>
       <c r="D20" t="n">
-        <v>131.0662871551015</v>
+        <v>380.2721837645907</v>
       </c>
       <c r="E20" t="n">
-        <v>131.0662871551015</v>
+        <v>243.7448013113599</v>
       </c>
       <c r="F20" t="n">
-        <v>131.0662871551015</v>
+        <v>243.7448013113599</v>
       </c>
       <c r="G20" t="n">
-        <v>131.0662871551015</v>
+        <v>107.2174188581291</v>
       </c>
       <c r="H20" t="n">
-        <v>131.0662871551015</v>
+        <v>10.81296869029588</v>
       </c>
       <c r="I20" t="n">
         <v>10.81296869029588</v>
       </c>
       <c r="J20" t="n">
-        <v>10.81296869029578</v>
+        <v>10.81296869029588</v>
       </c>
       <c r="K20" t="n">
-        <v>46.04290076965071</v>
+        <v>46.04290076965081</v>
       </c>
       <c r="L20" t="n">
-        <v>126.6505086157216</v>
+        <v>126.6505086157217</v>
       </c>
       <c r="M20" t="n">
-        <v>248.0114412118368</v>
+        <v>248.0114412118369</v>
       </c>
       <c r="N20" t="n">
-        <v>375.9499289551388</v>
+        <v>375.9499289551389</v>
       </c>
       <c r="O20" t="n">
-        <v>483.4233537753015</v>
+        <v>483.4233537753016</v>
       </c>
       <c r="P20" t="n">
-        <v>540.6484345147938</v>
+        <v>540.648434514794</v>
       </c>
       <c r="Q20" t="n">
-        <v>540.6484345147938</v>
+        <v>540.648434514794</v>
       </c>
       <c r="R20" t="n">
-        <v>540.6484345147938</v>
+        <v>516.7995662178215</v>
       </c>
       <c r="S20" t="n">
-        <v>540.6484345147938</v>
+        <v>516.7995662178215</v>
       </c>
       <c r="T20" t="n">
-        <v>540.6484345147938</v>
+        <v>516.7995662178215</v>
       </c>
       <c r="U20" t="n">
-        <v>540.6484345147938</v>
+        <v>516.7995662178215</v>
       </c>
       <c r="V20" t="n">
-        <v>540.6484345147938</v>
+        <v>516.7995662178215</v>
       </c>
       <c r="W20" t="n">
-        <v>540.6484345147938</v>
+        <v>516.7995662178215</v>
       </c>
       <c r="X20" t="n">
-        <v>540.6484345147938</v>
+        <v>380.2721837645907</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.1210520615631</v>
+        <v>380.2721837645907</v>
       </c>
     </row>
     <row r="21">
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>233.8694916592076</v>
+        <v>283.8677335967575</v>
       </c>
       <c r="C21" t="n">
         <v>147.3403511435267</v>
@@ -5832,49 +5832,49 @@
         <v>10.81296869029588</v>
       </c>
       <c r="K21" t="n">
-        <v>46.27146922083023</v>
+        <v>46.27146922083024</v>
       </c>
       <c r="L21" t="n">
         <v>140.2723401900406</v>
       </c>
       <c r="M21" t="n">
-        <v>224.0237670882186</v>
+        <v>269.3237910487287</v>
       </c>
       <c r="N21" t="n">
-        <v>357.8342546306301</v>
+        <v>403.1342785911402</v>
       </c>
       <c r="O21" t="n">
-        <v>469.9770337958942</v>
+        <v>515.2770577564042</v>
       </c>
       <c r="P21" t="n">
-        <v>540.6484345147938</v>
+        <v>540.648434514794</v>
       </c>
       <c r="Q21" t="n">
-        <v>540.6484345147938</v>
+        <v>540.648434514794</v>
       </c>
       <c r="R21" t="n">
-        <v>506.9242565656691</v>
+        <v>540.648434514794</v>
       </c>
       <c r="S21" t="n">
-        <v>506.9242565656691</v>
+        <v>420.3951160499883</v>
       </c>
       <c r="T21" t="n">
-        <v>506.9242565656691</v>
+        <v>420.3951160499883</v>
       </c>
       <c r="U21" t="n">
-        <v>506.9242565656691</v>
+        <v>420.3951160499883</v>
       </c>
       <c r="V21" t="n">
-        <v>506.9242565656691</v>
+        <v>420.3951160499883</v>
       </c>
       <c r="W21" t="n">
-        <v>506.9242565656691</v>
+        <v>420.3951160499883</v>
       </c>
       <c r="X21" t="n">
-        <v>370.3968741124384</v>
+        <v>420.3951160499883</v>
       </c>
       <c r="Y21" t="n">
-        <v>233.8694916592076</v>
+        <v>420.3951160499883</v>
       </c>
     </row>
     <row r="22">
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>147.3403511435267</v>
+        <v>10.81296869029588</v>
       </c>
       <c r="C22" t="n">
-        <v>147.3403511435267</v>
+        <v>10.81296869029588</v>
       </c>
       <c r="D22" t="n">
-        <v>147.3403511435267</v>
+        <v>10.81296869029588</v>
       </c>
       <c r="E22" t="n">
-        <v>147.3403511435267</v>
+        <v>10.81296869029588</v>
       </c>
       <c r="F22" t="n">
-        <v>147.3403511435267</v>
+        <v>10.81296869029588</v>
       </c>
       <c r="G22" t="n">
         <v>10.81296869029588</v>
@@ -5914,43 +5914,43 @@
         <v>10.81296869029588</v>
       </c>
       <c r="L22" t="n">
-        <v>144.6234562327074</v>
+        <v>139.2169718875595</v>
       </c>
       <c r="M22" t="n">
-        <v>278.4339437751188</v>
+        <v>273.027459429971</v>
       </c>
       <c r="N22" t="n">
-        <v>412.2444313175303</v>
+        <v>406.8379469723825</v>
       </c>
       <c r="O22" t="n">
-        <v>435.388316500557</v>
+        <v>540.648434514794</v>
       </c>
       <c r="P22" t="n">
-        <v>540.6484345147938</v>
+        <v>540.648434514794</v>
       </c>
       <c r="Q22" t="n">
-        <v>540.6484345147938</v>
+        <v>540.648434514794</v>
       </c>
       <c r="R22" t="n">
-        <v>540.6484345147938</v>
+        <v>540.648434514794</v>
       </c>
       <c r="S22" t="n">
+        <v>540.648434514794</v>
+      </c>
+      <c r="T22" t="n">
         <v>404.1210520615631</v>
       </c>
-      <c r="T22" t="n">
+      <c r="U22" t="n">
+        <v>404.1210520615631</v>
+      </c>
+      <c r="V22" t="n">
         <v>283.8677335967575</v>
       </c>
-      <c r="U22" t="n">
+      <c r="W22" t="n">
         <v>283.8677335967575</v>
       </c>
-      <c r="V22" t="n">
-        <v>147.3403511435267</v>
-      </c>
-      <c r="W22" t="n">
-        <v>147.3403511435267</v>
-      </c>
       <c r="X22" t="n">
-        <v>147.3403511435267</v>
+        <v>283.8677335967575</v>
       </c>
       <c r="Y22" t="n">
         <v>147.3403511435267</v>
@@ -5963,46 +5963,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>12.00409603911601</v>
+        <v>448.6379327750429</v>
       </c>
       <c r="C23" t="n">
-        <v>12.00409603911601</v>
+        <v>448.6379327750429</v>
       </c>
       <c r="D23" t="n">
-        <v>12.00409603911601</v>
+        <v>448.6379327750429</v>
       </c>
       <c r="E23" t="n">
-        <v>12.00409603911601</v>
+        <v>448.6379327750429</v>
       </c>
       <c r="F23" t="n">
-        <v>12.00409603911601</v>
+        <v>448.6379327750429</v>
       </c>
       <c r="G23" t="n">
-        <v>12.00409603911601</v>
+        <v>297.0710635942852</v>
       </c>
       <c r="H23" t="n">
-        <v>12.00409603911601</v>
+        <v>145.5041944135274</v>
       </c>
       <c r="I23" t="n">
         <v>12.00409603911601</v>
       </c>
       <c r="J23" t="n">
-        <v>70.3693361313027</v>
+        <v>12.00409603911601</v>
       </c>
       <c r="K23" t="n">
-        <v>105.5992682106576</v>
+        <v>47.23402811847095</v>
       </c>
       <c r="L23" t="n">
-        <v>186.2068760567285</v>
+        <v>127.8416359645418</v>
       </c>
       <c r="M23" t="n">
-        <v>307.5678086528437</v>
+        <v>249.2025685606571</v>
       </c>
       <c r="N23" t="n">
-        <v>435.5062963961457</v>
+        <v>377.1410563039591</v>
       </c>
       <c r="O23" t="n">
-        <v>542.9797212163083</v>
+        <v>484.6144811241217</v>
       </c>
       <c r="P23" t="n">
         <v>600.2048019558007</v>
@@ -6017,22 +6017,22 @@
         <v>600.2048019558007</v>
       </c>
       <c r="T23" t="n">
+        <v>600.2048019558007</v>
+      </c>
+      <c r="U23" t="n">
+        <v>600.2048019558007</v>
+      </c>
+      <c r="V23" t="n">
+        <v>600.2048019558007</v>
+      </c>
+      <c r="W23" t="n">
+        <v>600.2048019558007</v>
+      </c>
+      <c r="X23" t="n">
         <v>448.6379327750429</v>
       </c>
-      <c r="U23" t="n">
-        <v>297.0710635942852</v>
-      </c>
-      <c r="V23" t="n">
-        <v>297.0710635942852</v>
-      </c>
-      <c r="W23" t="n">
-        <v>145.5041944135274</v>
-      </c>
-      <c r="X23" t="n">
-        <v>145.5041944135274</v>
-      </c>
       <c r="Y23" t="n">
-        <v>145.5041944135274</v>
+        <v>448.6379327750429</v>
       </c>
     </row>
     <row r="24">
@@ -6042,16 +6042,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>12.00409603911601</v>
+        <v>158.538654012231</v>
       </c>
       <c r="C24" t="n">
-        <v>12.00409603911601</v>
+        <v>158.538654012231</v>
       </c>
       <c r="D24" t="n">
-        <v>12.00409603911601</v>
+        <v>158.538654012231</v>
       </c>
       <c r="E24" t="n">
-        <v>12.00409603911601</v>
+        <v>158.538654012231</v>
       </c>
       <c r="F24" t="n">
         <v>12.00409603911601</v>
@@ -6069,10 +6069,10 @@
         <v>12.00409603911601</v>
       </c>
       <c r="K24" t="n">
-        <v>47.46259656965037</v>
+        <v>47.46259656965034</v>
       </c>
       <c r="L24" t="n">
-        <v>141.4634675388608</v>
+        <v>141.4634675388607</v>
       </c>
       <c r="M24" t="n">
         <v>270.5149183975489</v>
@@ -6093,25 +6093,25 @@
         <v>600.2048019558007</v>
       </c>
       <c r="S24" t="n">
+        <v>600.2048019558007</v>
+      </c>
+      <c r="T24" t="n">
+        <v>600.2048019558007</v>
+      </c>
+      <c r="U24" t="n">
+        <v>600.2048019558007</v>
+      </c>
+      <c r="V24" t="n">
         <v>448.6379327750429</v>
       </c>
-      <c r="T24" t="n">
-        <v>448.6379327750429</v>
-      </c>
-      <c r="U24" t="n">
-        <v>297.0710635942852</v>
-      </c>
-      <c r="V24" t="n">
-        <v>297.0710635942852</v>
-      </c>
       <c r="W24" t="n">
-        <v>145.5041944135274</v>
+        <v>310.1055231929888</v>
       </c>
       <c r="X24" t="n">
-        <v>12.00409603911601</v>
+        <v>158.538654012231</v>
       </c>
       <c r="Y24" t="n">
-        <v>12.00409603911601</v>
+        <v>158.538654012231</v>
       </c>
     </row>
     <row r="25">
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>148.1628611388897</v>
+        <v>437.8651233616854</v>
       </c>
       <c r="C25" t="n">
-        <v>148.1628611388897</v>
+        <v>437.8651233616854</v>
       </c>
       <c r="D25" t="n">
-        <v>148.1628611388897</v>
+        <v>437.8651233616854</v>
       </c>
       <c r="E25" t="n">
-        <v>148.1628611388897</v>
+        <v>437.8651233616854</v>
       </c>
       <c r="F25" t="n">
-        <v>148.1628611388897</v>
+        <v>437.8651233616854</v>
       </c>
       <c r="G25" t="n">
-        <v>148.1628611388897</v>
+        <v>286.2982541809276</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1628611388897</v>
+        <v>134.7313850001699</v>
       </c>
       <c r="I25" t="n">
-        <v>41.91908954225624</v>
+        <v>12.00409603911601</v>
       </c>
       <c r="J25" t="n">
         <v>12.00409603911601</v>
@@ -6151,10 +6151,10 @@
         <v>12.00409603911601</v>
       </c>
       <c r="L25" t="n">
-        <v>160.5547845231767</v>
+        <v>154.5527365036188</v>
       </c>
       <c r="M25" t="n">
-        <v>309.1054730072373</v>
+        <v>303.1034249876794</v>
       </c>
       <c r="N25" t="n">
         <v>451.6541134717401</v>
@@ -6169,28 +6169,28 @@
         <v>589.4319925424431</v>
       </c>
       <c r="R25" t="n">
-        <v>451.2965995004052</v>
+        <v>589.4319925424431</v>
       </c>
       <c r="S25" t="n">
-        <v>451.2965995004052</v>
+        <v>589.4319925424431</v>
       </c>
       <c r="T25" t="n">
-        <v>451.2965995004052</v>
+        <v>589.4319925424431</v>
       </c>
       <c r="U25" t="n">
-        <v>451.2965995004052</v>
+        <v>589.4319925424431</v>
       </c>
       <c r="V25" t="n">
-        <v>299.7297303196474</v>
+        <v>589.4319925424431</v>
       </c>
       <c r="W25" t="n">
-        <v>148.1628611388897</v>
+        <v>437.8651233616854</v>
       </c>
       <c r="X25" t="n">
-        <v>148.1628611388897</v>
+        <v>437.8651233616854</v>
       </c>
       <c r="Y25" t="n">
-        <v>148.1628611388897</v>
+        <v>437.8651233616854</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>297.0710635942853</v>
+        <v>448.6379327750428</v>
       </c>
       <c r="C26" t="n">
-        <v>297.0710635942853</v>
+        <v>448.6379327750428</v>
       </c>
       <c r="D26" t="n">
-        <v>297.0710635942853</v>
+        <v>448.6379327750428</v>
       </c>
       <c r="E26" t="n">
-        <v>297.0710635942853</v>
+        <v>297.0710635942851</v>
       </c>
       <c r="F26" t="n">
-        <v>297.0710635942853</v>
+        <v>145.5041944135274</v>
       </c>
       <c r="G26" t="n">
-        <v>145.5041944135275</v>
+        <v>12.00409603911601</v>
       </c>
       <c r="H26" t="n">
-        <v>12.00409603911602</v>
+        <v>12.00409603911601</v>
       </c>
       <c r="I26" t="n">
-        <v>12.00409603911602</v>
+        <v>12.00409603911601</v>
       </c>
       <c r="J26" t="n">
-        <v>12.00409603911602</v>
+        <v>12.00409603911601</v>
       </c>
       <c r="K26" t="n">
-        <v>47.23402811847095</v>
+        <v>47.23402811847091</v>
       </c>
       <c r="L26" t="n">
-        <v>127.8416359645418</v>
+        <v>127.8416359645417</v>
       </c>
       <c r="M26" t="n">
-        <v>249.2025685606571</v>
+        <v>249.2025685606569</v>
       </c>
       <c r="N26" t="n">
-        <v>377.1410563039591</v>
+        <v>377.1410563039589</v>
       </c>
       <c r="O26" t="n">
-        <v>484.6144811241217</v>
+        <v>484.6144811241214</v>
       </c>
       <c r="P26" t="n">
-        <v>600.2048019558009</v>
+        <v>541.8395618636138</v>
       </c>
       <c r="Q26" t="n">
-        <v>600.2048019558009</v>
+        <v>600.2048019558005</v>
       </c>
       <c r="R26" t="n">
-        <v>600.2048019558009</v>
+        <v>600.2048019558005</v>
       </c>
       <c r="S26" t="n">
-        <v>600.2048019558009</v>
+        <v>600.2048019558005</v>
       </c>
       <c r="T26" t="n">
-        <v>600.2048019558009</v>
+        <v>448.6379327750428</v>
       </c>
       <c r="U26" t="n">
-        <v>600.2048019558009</v>
+        <v>448.6379327750428</v>
       </c>
       <c r="V26" t="n">
-        <v>448.6379327750431</v>
+        <v>448.6379327750428</v>
       </c>
       <c r="W26" t="n">
-        <v>448.6379327750431</v>
+        <v>448.6379327750428</v>
       </c>
       <c r="X26" t="n">
-        <v>448.6379327750431</v>
+        <v>448.6379327750428</v>
       </c>
       <c r="Y26" t="n">
-        <v>448.6379327750431</v>
+        <v>448.6379327750428</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>600.2048019558009</v>
+        <v>145.5041944135274</v>
       </c>
       <c r="C27" t="n">
-        <v>448.6379327750431</v>
+        <v>145.5041944135274</v>
       </c>
       <c r="D27" t="n">
-        <v>447.7500572751415</v>
+        <v>145.5041944135274</v>
       </c>
       <c r="E27" t="n">
-        <v>296.1831880943837</v>
+        <v>12.00409603911601</v>
       </c>
       <c r="F27" t="n">
-        <v>149.6486301212687</v>
+        <v>12.00409603911601</v>
       </c>
       <c r="G27" t="n">
-        <v>12.00409603911602</v>
+        <v>12.00409603911601</v>
       </c>
       <c r="H27" t="n">
-        <v>12.00409603911602</v>
+        <v>12.00409603911601</v>
       </c>
       <c r="I27" t="n">
-        <v>12.00409603911602</v>
+        <v>12.00409603911601</v>
       </c>
       <c r="J27" t="n">
-        <v>12.00409603911602</v>
+        <v>12.00409603911601</v>
       </c>
       <c r="K27" t="n">
-        <v>47.46259656965037</v>
+        <v>47.46259656965032</v>
       </c>
       <c r="L27" t="n">
-        <v>141.4634675388608</v>
+        <v>141.4634675388606</v>
       </c>
       <c r="M27" t="n">
-        <v>270.5149183975491</v>
+        <v>270.5149183975486</v>
       </c>
       <c r="N27" t="n">
-        <v>417.3906220716372</v>
+        <v>417.3906220716368</v>
       </c>
       <c r="O27" t="n">
-        <v>529.5334012369012</v>
+        <v>529.5334012369009</v>
       </c>
       <c r="P27" t="n">
-        <v>600.2048019558009</v>
+        <v>600.2048019558005</v>
       </c>
       <c r="Q27" t="n">
-        <v>600.2048019558009</v>
+        <v>600.2048019558005</v>
       </c>
       <c r="R27" t="n">
-        <v>600.2048019558009</v>
+        <v>600.2048019558005</v>
       </c>
       <c r="S27" t="n">
-        <v>600.2048019558009</v>
+        <v>600.2048019558005</v>
       </c>
       <c r="T27" t="n">
-        <v>600.2048019558009</v>
+        <v>600.2048019558005</v>
       </c>
       <c r="U27" t="n">
-        <v>600.2048019558009</v>
+        <v>448.6379327750428</v>
       </c>
       <c r="V27" t="n">
-        <v>600.2048019558009</v>
+        <v>448.6379327750428</v>
       </c>
       <c r="W27" t="n">
-        <v>600.2048019558009</v>
+        <v>297.0710635942851</v>
       </c>
       <c r="X27" t="n">
-        <v>600.2048019558009</v>
+        <v>297.0710635942851</v>
       </c>
       <c r="Y27" t="n">
-        <v>600.2048019558009</v>
+        <v>297.0710635942851</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>145.5041944135275</v>
+        <v>448.6379327750428</v>
       </c>
       <c r="C28" t="n">
-        <v>145.5041944135275</v>
+        <v>297.0710635942851</v>
       </c>
       <c r="D28" t="n">
-        <v>145.5041944135275</v>
+        <v>146.9544241819493</v>
       </c>
       <c r="E28" t="n">
-        <v>145.5041944135275</v>
+        <v>12.00409603911601</v>
       </c>
       <c r="F28" t="n">
-        <v>145.5041944135275</v>
+        <v>12.00409603911601</v>
       </c>
       <c r="G28" t="n">
-        <v>12.00409603911602</v>
+        <v>12.00409603911601</v>
       </c>
       <c r="H28" t="n">
-        <v>12.00409603911602</v>
+        <v>12.00409603911601</v>
       </c>
       <c r="I28" t="n">
-        <v>12.00409603911602</v>
+        <v>12.00409603911601</v>
       </c>
       <c r="J28" t="n">
-        <v>12.00409603911602</v>
+        <v>12.00409603911601</v>
       </c>
       <c r="K28" t="n">
-        <v>12.00409603911602</v>
+        <v>12.00409603911601</v>
       </c>
       <c r="L28" t="n">
-        <v>154.5527365036187</v>
+        <v>160.5547845231766</v>
       </c>
       <c r="M28" t="n">
-        <v>303.1034249876794</v>
+        <v>309.1054730072372</v>
       </c>
       <c r="N28" t="n">
-        <v>451.6541134717402</v>
+        <v>451.6541134717398</v>
       </c>
       <c r="O28" t="n">
-        <v>600.2048019558009</v>
+        <v>600.2048019558005</v>
       </c>
       <c r="P28" t="n">
-        <v>600.2048019558009</v>
+        <v>600.2048019558005</v>
       </c>
       <c r="Q28" t="n">
-        <v>600.2048019558009</v>
+        <v>600.2048019558005</v>
       </c>
       <c r="R28" t="n">
-        <v>600.2048019558009</v>
+        <v>600.2048019558005</v>
       </c>
       <c r="S28" t="n">
-        <v>600.2048019558009</v>
+        <v>600.2048019558005</v>
       </c>
       <c r="T28" t="n">
-        <v>448.6379327750431</v>
+        <v>448.6379327750428</v>
       </c>
       <c r="U28" t="n">
-        <v>297.0710635942853</v>
+        <v>448.6379327750428</v>
       </c>
       <c r="V28" t="n">
-        <v>145.5041944135275</v>
+        <v>448.6379327750428</v>
       </c>
       <c r="W28" t="n">
-        <v>145.5041944135275</v>
+        <v>448.6379327750428</v>
       </c>
       <c r="X28" t="n">
-        <v>145.5041944135275</v>
+        <v>448.6379327750428</v>
       </c>
       <c r="Y28" t="n">
-        <v>145.5041944135275</v>
+        <v>448.6379327750428</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>297.0710635942853</v>
+        <v>273.2221952973126</v>
       </c>
       <c r="C29" t="n">
-        <v>163.5709652198738</v>
+        <v>121.6553261165549</v>
       </c>
       <c r="D29" t="n">
-        <v>163.5709652198738</v>
+        <v>121.6553261165549</v>
       </c>
       <c r="E29" t="n">
-        <v>12.00409603911602</v>
+        <v>121.6553261165549</v>
       </c>
       <c r="F29" t="n">
-        <v>12.00409603911602</v>
+        <v>121.6553261165549</v>
       </c>
       <c r="G29" t="n">
-        <v>12.00409603911602</v>
+        <v>121.6553261165549</v>
       </c>
       <c r="H29" t="n">
-        <v>12.00409603911602</v>
+        <v>121.6553261165549</v>
       </c>
       <c r="I29" t="n">
-        <v>12.00409603911602</v>
+        <v>12.00409603911601</v>
       </c>
       <c r="J29" t="n">
-        <v>70.36933613130293</v>
+        <v>12.00409603911601</v>
       </c>
       <c r="K29" t="n">
-        <v>105.5992682106579</v>
+        <v>47.23402811847091</v>
       </c>
       <c r="L29" t="n">
-        <v>186.2068760567287</v>
+        <v>127.8416359645417</v>
       </c>
       <c r="M29" t="n">
-        <v>307.567808652844</v>
+        <v>249.2025685606569</v>
       </c>
       <c r="N29" t="n">
-        <v>435.506296396146</v>
+        <v>377.1410563039589</v>
       </c>
       <c r="O29" t="n">
-        <v>542.9797212163086</v>
+        <v>484.6144811241214</v>
       </c>
       <c r="P29" t="n">
-        <v>600.2048019558009</v>
+        <v>541.8395618636138</v>
       </c>
       <c r="Q29" t="n">
-        <v>600.2048019558009</v>
+        <v>600.2048019558005</v>
       </c>
       <c r="R29" t="n">
-        <v>600.2048019558009</v>
+        <v>576.355933658828</v>
       </c>
       <c r="S29" t="n">
-        <v>600.2048019558009</v>
+        <v>424.7890644780703</v>
       </c>
       <c r="T29" t="n">
-        <v>600.2048019558009</v>
+        <v>424.7890644780703</v>
       </c>
       <c r="U29" t="n">
-        <v>600.2048019558009</v>
+        <v>424.7890644780703</v>
       </c>
       <c r="V29" t="n">
-        <v>600.2048019558009</v>
+        <v>273.2221952973126</v>
       </c>
       <c r="W29" t="n">
-        <v>600.2048019558009</v>
+        <v>273.2221952973126</v>
       </c>
       <c r="X29" t="n">
-        <v>448.6379327750431</v>
+        <v>273.2221952973126</v>
       </c>
       <c r="Y29" t="n">
-        <v>297.0710635942853</v>
+        <v>273.2221952973126</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>297.0710635942853</v>
+        <v>12.00409603911601</v>
       </c>
       <c r="C30" t="n">
-        <v>145.5041944135275</v>
+        <v>12.00409603911601</v>
       </c>
       <c r="D30" t="n">
-        <v>12.00409603911602</v>
+        <v>12.00409603911601</v>
       </c>
       <c r="E30" t="n">
-        <v>12.00409603911602</v>
+        <v>12.00409603911601</v>
       </c>
       <c r="F30" t="n">
-        <v>12.00409603911602</v>
+        <v>12.00409603911601</v>
       </c>
       <c r="G30" t="n">
-        <v>12.00409603911602</v>
+        <v>12.00409603911601</v>
       </c>
       <c r="H30" t="n">
-        <v>12.00409603911602</v>
+        <v>12.00409603911601</v>
       </c>
       <c r="I30" t="n">
-        <v>12.00409603911602</v>
+        <v>12.00409603911601</v>
       </c>
       <c r="J30" t="n">
-        <v>12.00409603911602</v>
+        <v>12.00409603911601</v>
       </c>
       <c r="K30" t="n">
-        <v>47.46259656965038</v>
+        <v>47.46259656965032</v>
       </c>
       <c r="L30" t="n">
-        <v>141.4634675388607</v>
+        <v>141.4634675388606</v>
       </c>
       <c r="M30" t="n">
-        <v>270.5149183975489</v>
+        <v>270.5149183975486</v>
       </c>
       <c r="N30" t="n">
-        <v>417.390622071637</v>
+        <v>417.3906220716368</v>
       </c>
       <c r="O30" t="n">
-        <v>529.5334012369011</v>
+        <v>529.5334012369009</v>
       </c>
       <c r="P30" t="n">
-        <v>600.2048019558008</v>
+        <v>600.2048019558005</v>
       </c>
       <c r="Q30" t="n">
-        <v>600.2048019558009</v>
+        <v>600.2048019558005</v>
       </c>
       <c r="R30" t="n">
-        <v>600.2048019558009</v>
+        <v>600.2048019558005</v>
       </c>
       <c r="S30" t="n">
-        <v>600.2048019558009</v>
+        <v>466.7047035813891</v>
       </c>
       <c r="T30" t="n">
-        <v>600.2048019558009</v>
+        <v>315.1378344006314</v>
       </c>
       <c r="U30" t="n">
-        <v>448.6379327750431</v>
+        <v>163.5709652198737</v>
       </c>
       <c r="V30" t="n">
-        <v>448.6379327750431</v>
+        <v>12.00409603911601</v>
       </c>
       <c r="W30" t="n">
-        <v>448.6379327750431</v>
+        <v>12.00409603911601</v>
       </c>
       <c r="X30" t="n">
-        <v>448.6379327750431</v>
+        <v>12.00409603911601</v>
       </c>
       <c r="Y30" t="n">
-        <v>448.6379327750431</v>
+        <v>12.00409603911601</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>299.7297303196476</v>
+        <v>313.6876046322094</v>
       </c>
       <c r="C31" t="n">
-        <v>299.7297303196476</v>
+        <v>162.1207354514517</v>
       </c>
       <c r="D31" t="n">
-        <v>299.7297303196476</v>
+        <v>12.00409603911601</v>
       </c>
       <c r="E31" t="n">
-        <v>299.7297303196476</v>
+        <v>12.00409603911601</v>
       </c>
       <c r="F31" t="n">
-        <v>299.7297303196476</v>
+        <v>12.00409603911601</v>
       </c>
       <c r="G31" t="n">
-        <v>299.7297303196476</v>
+        <v>12.00409603911601</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1628611388898</v>
+        <v>12.00409603911601</v>
       </c>
       <c r="I31" t="n">
-        <v>18.52971779771957</v>
+        <v>12.00409603911601</v>
       </c>
       <c r="J31" t="n">
-        <v>12.00409603911602</v>
+        <v>12.00409603911601</v>
       </c>
       <c r="K31" t="n">
-        <v>12.00409603911602</v>
+        <v>12.00409603911601</v>
       </c>
       <c r="L31" t="n">
-        <v>154.5527365036187</v>
+        <v>154.5527365036186</v>
       </c>
       <c r="M31" t="n">
-        <v>303.1034249876794</v>
+        <v>303.1034249876792</v>
       </c>
       <c r="N31" t="n">
-        <v>451.6541134717402</v>
+        <v>451.6541134717398</v>
       </c>
       <c r="O31" t="n">
-        <v>600.2048019558009</v>
+        <v>600.2048019558005</v>
       </c>
       <c r="P31" t="n">
-        <v>600.2048019558009</v>
+        <v>600.2048019558005</v>
       </c>
       <c r="Q31" t="n">
-        <v>589.4319925424434</v>
+        <v>589.4319925424429</v>
       </c>
       <c r="R31" t="n">
-        <v>451.2965995004054</v>
+        <v>465.2544738129671</v>
       </c>
       <c r="S31" t="n">
-        <v>299.7297303196476</v>
+        <v>465.2544738129671</v>
       </c>
       <c r="T31" t="n">
-        <v>299.7297303196476</v>
+        <v>465.2544738129671</v>
       </c>
       <c r="U31" t="n">
-        <v>299.7297303196476</v>
+        <v>465.2544738129671</v>
       </c>
       <c r="V31" t="n">
-        <v>299.7297303196476</v>
+        <v>465.2544738129671</v>
       </c>
       <c r="W31" t="n">
-        <v>299.7297303196476</v>
+        <v>313.6876046322094</v>
       </c>
       <c r="X31" t="n">
-        <v>299.7297303196476</v>
+        <v>313.6876046322094</v>
       </c>
       <c r="Y31" t="n">
-        <v>299.7297303196476</v>
+        <v>313.6876046322094</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>12.00409603911602</v>
+        <v>145.5041944135274</v>
       </c>
       <c r="C32" t="n">
-        <v>12.00409603911602</v>
+        <v>12.00409603911601</v>
       </c>
       <c r="D32" t="n">
-        <v>12.00409603911602</v>
+        <v>12.00409603911601</v>
       </c>
       <c r="E32" t="n">
-        <v>12.00409603911602</v>
+        <v>12.00409603911601</v>
       </c>
       <c r="F32" t="n">
-        <v>12.00409603911602</v>
+        <v>12.00409603911601</v>
       </c>
       <c r="G32" t="n">
-        <v>12.00409603911602</v>
+        <v>12.00409603911601</v>
       </c>
       <c r="H32" t="n">
-        <v>12.00409603911602</v>
+        <v>12.00409603911601</v>
       </c>
       <c r="I32" t="n">
-        <v>12.00409603911602</v>
+        <v>12.00409603911601</v>
       </c>
       <c r="J32" t="n">
-        <v>12.00409603911602</v>
+        <v>43.17958024335729</v>
       </c>
       <c r="K32" t="n">
-        <v>47.23402811847095</v>
+        <v>78.40951232271219</v>
       </c>
       <c r="L32" t="n">
-        <v>127.8416359645418</v>
+        <v>159.017120168783</v>
       </c>
       <c r="M32" t="n">
-        <v>249.2025685606571</v>
+        <v>307.5678086528436</v>
       </c>
       <c r="N32" t="n">
-        <v>377.1410563039591</v>
+        <v>435.5062963961456</v>
       </c>
       <c r="O32" t="n">
-        <v>484.6144811241217</v>
+        <v>542.9797212163081</v>
       </c>
       <c r="P32" t="n">
-        <v>541.8395618636141</v>
+        <v>600.2048019558005</v>
       </c>
       <c r="Q32" t="n">
-        <v>600.2048019558009</v>
+        <v>600.2048019558005</v>
       </c>
       <c r="R32" t="n">
-        <v>576.3559336588285</v>
+        <v>600.2048019558005</v>
       </c>
       <c r="S32" t="n">
-        <v>424.7890644780707</v>
+        <v>600.2048019558005</v>
       </c>
       <c r="T32" t="n">
-        <v>315.1378344006316</v>
+        <v>600.2048019558005</v>
       </c>
       <c r="U32" t="n">
-        <v>163.5709652198738</v>
+        <v>600.2048019558005</v>
       </c>
       <c r="V32" t="n">
-        <v>12.00409603911602</v>
+        <v>600.2048019558005</v>
       </c>
       <c r="W32" t="n">
-        <v>12.00409603911602</v>
+        <v>448.6379327750428</v>
       </c>
       <c r="X32" t="n">
-        <v>12.00409603911602</v>
+        <v>448.6379327750428</v>
       </c>
       <c r="Y32" t="n">
-        <v>12.00409603911602</v>
+        <v>297.0710635942851</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>600.2048019558009</v>
+        <v>252.5264783444768</v>
       </c>
       <c r="C33" t="n">
-        <v>448.6379327750431</v>
+        <v>252.5264783444768</v>
       </c>
       <c r="D33" t="n">
-        <v>448.6379327750431</v>
+        <v>252.5264783444768</v>
       </c>
       <c r="E33" t="n">
-        <v>297.0710635942853</v>
+        <v>252.5264783444768</v>
       </c>
       <c r="F33" t="n">
-        <v>150.5365056211703</v>
+        <v>252.5264783444768</v>
       </c>
       <c r="G33" t="n">
         <v>114.8819442623241</v>
       </c>
       <c r="H33" t="n">
-        <v>12.00409603911602</v>
+        <v>12.00409603911601</v>
       </c>
       <c r="I33" t="n">
-        <v>12.00409603911602</v>
+        <v>12.00409603911601</v>
       </c>
       <c r="J33" t="n">
-        <v>12.00409603911602</v>
+        <v>12.00409603911601</v>
       </c>
       <c r="K33" t="n">
-        <v>47.46259656965038</v>
+        <v>47.46259656965034</v>
       </c>
       <c r="L33" t="n">
         <v>141.4634675388607</v>
       </c>
       <c r="M33" t="n">
-        <v>270.5149183975489</v>
+        <v>270.5149183975487</v>
       </c>
       <c r="N33" t="n">
-        <v>417.390622071637</v>
+        <v>417.3906220716369</v>
       </c>
       <c r="O33" t="n">
-        <v>529.5334012369011</v>
+        <v>529.533401236901</v>
       </c>
       <c r="P33" t="n">
-        <v>600.2048019558008</v>
+        <v>600.2048019558006</v>
       </c>
       <c r="Q33" t="n">
-        <v>600.2048019558009</v>
+        <v>600.2048019558005</v>
       </c>
       <c r="R33" t="n">
-        <v>600.2048019558009</v>
+        <v>600.2048019558005</v>
       </c>
       <c r="S33" t="n">
-        <v>600.2048019558009</v>
+        <v>448.6379327750428</v>
       </c>
       <c r="T33" t="n">
-        <v>600.2048019558009</v>
+        <v>448.6379327750428</v>
       </c>
       <c r="U33" t="n">
-        <v>600.2048019558009</v>
+        <v>448.6379327750428</v>
       </c>
       <c r="V33" t="n">
-        <v>600.2048019558009</v>
+        <v>448.6379327750428</v>
       </c>
       <c r="W33" t="n">
-        <v>600.2048019558009</v>
+        <v>448.6379327750428</v>
       </c>
       <c r="X33" t="n">
-        <v>600.2048019558009</v>
+        <v>404.0933475252345</v>
       </c>
       <c r="Y33" t="n">
-        <v>600.2048019558009</v>
+        <v>252.5264783444768</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>310.5025397330052</v>
+        <v>141.6372393802862</v>
       </c>
       <c r="C34" t="n">
-        <v>310.5025397330052</v>
+        <v>141.6372393802862</v>
       </c>
       <c r="D34" t="n">
-        <v>310.5025397330052</v>
+        <v>141.6372393802862</v>
       </c>
       <c r="E34" t="n">
-        <v>310.5025397330052</v>
+        <v>141.6372393802862</v>
       </c>
       <c r="F34" t="n">
-        <v>310.5025397330052</v>
+        <v>141.6372393802862</v>
       </c>
       <c r="G34" t="n">
-        <v>158.9356705522474</v>
+        <v>141.6372393802862</v>
       </c>
       <c r="H34" t="n">
-        <v>12.00409603911602</v>
+        <v>141.6372393802862</v>
       </c>
       <c r="I34" t="n">
-        <v>12.00409603911602</v>
+        <v>12.00409603911601</v>
       </c>
       <c r="J34" t="n">
-        <v>12.00409603911602</v>
+        <v>12.00409603911601</v>
       </c>
       <c r="K34" t="n">
-        <v>12.00409603911602</v>
+        <v>12.00409603911601</v>
       </c>
       <c r="L34" t="n">
-        <v>154.5527365036187</v>
+        <v>154.5527365036186</v>
       </c>
       <c r="M34" t="n">
-        <v>303.1034249876794</v>
+        <v>303.1034249876792</v>
       </c>
       <c r="N34" t="n">
-        <v>451.6541134717402</v>
+        <v>451.6541134717398</v>
       </c>
       <c r="O34" t="n">
-        <v>600.2048019558009</v>
+        <v>600.2048019558005</v>
       </c>
       <c r="P34" t="n">
-        <v>600.2048019558009</v>
+        <v>600.2048019558005</v>
       </c>
       <c r="Q34" t="n">
-        <v>600.2048019558009</v>
+        <v>596.3378469225593</v>
       </c>
       <c r="R34" t="n">
-        <v>462.069408913763</v>
+        <v>596.3378469225593</v>
       </c>
       <c r="S34" t="n">
-        <v>462.069408913763</v>
+        <v>596.3378469225593</v>
       </c>
       <c r="T34" t="n">
-        <v>310.5025397330052</v>
+        <v>596.3378469225593</v>
       </c>
       <c r="U34" t="n">
-        <v>310.5025397330052</v>
+        <v>596.3378469225593</v>
       </c>
       <c r="V34" t="n">
-        <v>310.5025397330052</v>
+        <v>596.3378469225593</v>
       </c>
       <c r="W34" t="n">
-        <v>310.5025397330052</v>
+        <v>444.7709777418016</v>
       </c>
       <c r="X34" t="n">
-        <v>310.5025397330052</v>
+        <v>293.2041085610439</v>
       </c>
       <c r="Y34" t="n">
-        <v>310.5025397330052</v>
+        <v>293.2041085610439</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>267.5936696083323</v>
+        <v>147.3403511435266</v>
       </c>
       <c r="C35" t="n">
-        <v>267.5936696083323</v>
+        <v>147.3403511435266</v>
       </c>
       <c r="D35" t="n">
-        <v>131.0662871551015</v>
+        <v>147.3403511435266</v>
       </c>
       <c r="E35" t="n">
-        <v>131.0662871551015</v>
+        <v>147.3403511435266</v>
       </c>
       <c r="F35" t="n">
-        <v>10.81296869029588</v>
+        <v>147.3403511435266</v>
       </c>
       <c r="G35" t="n">
-        <v>10.81296869029588</v>
+        <v>147.3403511435266</v>
       </c>
       <c r="H35" t="n">
-        <v>10.81296869029588</v>
+        <v>10.81296869029587</v>
       </c>
       <c r="I35" t="n">
-        <v>10.81296869029588</v>
+        <v>10.81296869029587</v>
       </c>
       <c r="J35" t="n">
-        <v>10.81296869029588</v>
+        <v>10.81296869029587</v>
       </c>
       <c r="K35" t="n">
-        <v>46.04290076965081</v>
+        <v>46.04290076965078</v>
       </c>
       <c r="L35" t="n">
-        <v>126.6505086157217</v>
+        <v>126.6505086157216</v>
       </c>
       <c r="M35" t="n">
-        <v>248.0114412118369</v>
+        <v>248.0114412118368</v>
       </c>
       <c r="N35" t="n">
-        <v>375.9499289551389</v>
+        <v>375.9499289551387</v>
       </c>
       <c r="O35" t="n">
-        <v>483.4233537753016</v>
+        <v>483.4233537753013</v>
       </c>
       <c r="P35" t="n">
-        <v>540.648434514794</v>
+        <v>540.6484345147936</v>
       </c>
       <c r="Q35" t="n">
-        <v>540.648434514794</v>
+        <v>540.6484345147936</v>
       </c>
       <c r="R35" t="n">
-        <v>540.648434514794</v>
+        <v>540.6484345147936</v>
       </c>
       <c r="S35" t="n">
-        <v>540.648434514794</v>
+        <v>420.395116049988</v>
       </c>
       <c r="T35" t="n">
-        <v>540.648434514794</v>
+        <v>420.395116049988</v>
       </c>
       <c r="U35" t="n">
-        <v>404.1210520615631</v>
+        <v>420.395116049988</v>
       </c>
       <c r="V35" t="n">
-        <v>404.1210520615631</v>
+        <v>420.395116049988</v>
       </c>
       <c r="W35" t="n">
-        <v>404.1210520615631</v>
+        <v>283.8677335967573</v>
       </c>
       <c r="X35" t="n">
-        <v>267.5936696083323</v>
+        <v>147.3403511435266</v>
       </c>
       <c r="Y35" t="n">
-        <v>267.5936696083323</v>
+        <v>147.3403511435266</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>283.8677335967575</v>
+        <v>283.8677335967573</v>
       </c>
       <c r="C36" t="n">
-        <v>147.3403511435267</v>
+        <v>147.3403511435266</v>
       </c>
       <c r="D36" t="n">
-        <v>10.81296869029588</v>
+        <v>147.3403511435266</v>
       </c>
       <c r="E36" t="n">
-        <v>10.81296869029588</v>
+        <v>10.81296869029587</v>
       </c>
       <c r="F36" t="n">
-        <v>10.81296869029588</v>
+        <v>10.81296869029587</v>
       </c>
       <c r="G36" t="n">
-        <v>10.81296869029588</v>
+        <v>10.81296869029587</v>
       </c>
       <c r="H36" t="n">
-        <v>10.81296869029588</v>
+        <v>10.81296869029587</v>
       </c>
       <c r="I36" t="n">
-        <v>10.81296869029588</v>
+        <v>10.81296869029587</v>
       </c>
       <c r="J36" t="n">
-        <v>10.81296869029588</v>
+        <v>10.81296869029587</v>
       </c>
       <c r="K36" t="n">
-        <v>46.27146922083024</v>
+        <v>10.81296869029587</v>
       </c>
       <c r="L36" t="n">
-        <v>140.2723401900406</v>
+        <v>94.97231622953043</v>
       </c>
       <c r="M36" t="n">
-        <v>269.3237910487287</v>
+        <v>224.0237670882185</v>
       </c>
       <c r="N36" t="n">
-        <v>403.1342785911402</v>
+        <v>357.8342546306299</v>
       </c>
       <c r="O36" t="n">
-        <v>469.9770337958943</v>
+        <v>469.977033795894</v>
       </c>
       <c r="P36" t="n">
-        <v>540.648434514794</v>
+        <v>540.6484345147936</v>
       </c>
       <c r="Q36" t="n">
-        <v>540.648434514794</v>
+        <v>540.6484345147936</v>
       </c>
       <c r="R36" t="n">
-        <v>540.648434514794</v>
+        <v>540.6484345147936</v>
       </c>
       <c r="S36" t="n">
-        <v>540.648434514794</v>
+        <v>420.395116049988</v>
       </c>
       <c r="T36" t="n">
-        <v>540.648434514794</v>
+        <v>420.395116049988</v>
       </c>
       <c r="U36" t="n">
-        <v>540.648434514794</v>
+        <v>420.395116049988</v>
       </c>
       <c r="V36" t="n">
-        <v>540.648434514794</v>
+        <v>420.395116049988</v>
       </c>
       <c r="W36" t="n">
-        <v>540.648434514794</v>
+        <v>420.395116049988</v>
       </c>
       <c r="X36" t="n">
-        <v>404.1210520615631</v>
+        <v>420.395116049988</v>
       </c>
       <c r="Y36" t="n">
-        <v>283.8677335967575</v>
+        <v>283.8677335967573</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>393.3482426482056</v>
+        <v>267.5936696083321</v>
       </c>
       <c r="C37" t="n">
-        <v>256.8208601949748</v>
+        <v>267.5936696083321</v>
       </c>
       <c r="D37" t="n">
-        <v>120.293477741744</v>
+        <v>267.5936696083321</v>
       </c>
       <c r="E37" t="n">
-        <v>10.81296869029588</v>
+        <v>267.5936696083321</v>
       </c>
       <c r="F37" t="n">
-        <v>10.81296869029588</v>
+        <v>267.5936696083321</v>
       </c>
       <c r="G37" t="n">
-        <v>10.81296869029588</v>
+        <v>140.4461120314661</v>
       </c>
       <c r="H37" t="n">
-        <v>10.81296869029588</v>
+        <v>140.4461120314661</v>
       </c>
       <c r="I37" t="n">
-        <v>10.81296869029588</v>
+        <v>10.81296869029587</v>
       </c>
       <c r="J37" t="n">
-        <v>10.81296869029588</v>
+        <v>10.81296869029587</v>
       </c>
       <c r="K37" t="n">
-        <v>10.81296869029588</v>
+        <v>92.46855607992538</v>
       </c>
       <c r="L37" t="n">
-        <v>33.9568538733227</v>
+        <v>157.5858712128666</v>
       </c>
       <c r="M37" t="n">
-        <v>167.7673414157342</v>
+        <v>291.396358755278</v>
       </c>
       <c r="N37" t="n">
-        <v>301.5778289581457</v>
+        <v>301.5778289581455</v>
       </c>
       <c r="O37" t="n">
-        <v>435.3883165005572</v>
+        <v>435.3883165005569</v>
       </c>
       <c r="P37" t="n">
-        <v>540.648434514794</v>
+        <v>540.6484345147936</v>
       </c>
       <c r="Q37" t="n">
-        <v>529.8756251014364</v>
+        <v>540.6484345147936</v>
       </c>
       <c r="R37" t="n">
-        <v>529.8756251014364</v>
+        <v>540.6484345147936</v>
       </c>
       <c r="S37" t="n">
-        <v>529.8756251014364</v>
+        <v>540.6484345147936</v>
       </c>
       <c r="T37" t="n">
-        <v>393.3482426482056</v>
+        <v>404.1210520615629</v>
       </c>
       <c r="U37" t="n">
-        <v>393.3482426482056</v>
+        <v>404.1210520615629</v>
       </c>
       <c r="V37" t="n">
-        <v>393.3482426482056</v>
+        <v>267.5936696083321</v>
       </c>
       <c r="W37" t="n">
-        <v>393.3482426482056</v>
+        <v>267.5936696083321</v>
       </c>
       <c r="X37" t="n">
-        <v>393.3482426482056</v>
+        <v>267.5936696083321</v>
       </c>
       <c r="Y37" t="n">
-        <v>393.3482426482056</v>
+        <v>267.5936696083321</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>420.3951160499882</v>
+        <v>540.6484345147936</v>
       </c>
       <c r="C38" t="n">
-        <v>420.3951160499882</v>
+        <v>420.395116049988</v>
       </c>
       <c r="D38" t="n">
-        <v>420.3951160499882</v>
+        <v>420.395116049988</v>
       </c>
       <c r="E38" t="n">
-        <v>283.8677335967575</v>
+        <v>283.8677335967573</v>
       </c>
       <c r="F38" t="n">
-        <v>147.3403511435267</v>
+        <v>147.3403511435266</v>
       </c>
       <c r="G38" t="n">
-        <v>10.81296869029588</v>
+        <v>10.81296869029587</v>
       </c>
       <c r="H38" t="n">
-        <v>10.81296869029588</v>
+        <v>10.81296869029587</v>
       </c>
       <c r="I38" t="n">
-        <v>10.81296869029588</v>
+        <v>10.81296869029587</v>
       </c>
       <c r="J38" t="n">
-        <v>10.81296869029578</v>
+        <v>10.81296869029587</v>
       </c>
       <c r="K38" t="n">
-        <v>46.04290076965071</v>
+        <v>46.0429007696506</v>
       </c>
       <c r="L38" t="n">
-        <v>126.6505086157216</v>
+        <v>126.6505086157213</v>
       </c>
       <c r="M38" t="n">
-        <v>248.0114412118368</v>
+        <v>248.0114412118365</v>
       </c>
       <c r="N38" t="n">
-        <v>375.9499289551388</v>
+        <v>375.9499289551387</v>
       </c>
       <c r="O38" t="n">
-        <v>483.4233537753015</v>
+        <v>483.4233537753013</v>
       </c>
       <c r="P38" t="n">
-        <v>540.6484345147938</v>
+        <v>540.6484345147936</v>
       </c>
       <c r="Q38" t="n">
-        <v>540.6484345147938</v>
+        <v>540.6484345147936</v>
       </c>
       <c r="R38" t="n">
-        <v>516.7995662178214</v>
+        <v>540.6484345147936</v>
       </c>
       <c r="S38" t="n">
-        <v>516.7995662178214</v>
+        <v>540.6484345147936</v>
       </c>
       <c r="T38" t="n">
-        <v>516.7995662178214</v>
+        <v>540.6484345147936</v>
       </c>
       <c r="U38" t="n">
-        <v>516.7995662178214</v>
+        <v>540.6484345147936</v>
       </c>
       <c r="V38" t="n">
-        <v>516.7995662178214</v>
+        <v>540.6484345147936</v>
       </c>
       <c r="W38" t="n">
-        <v>420.3951160499882</v>
+        <v>540.6484345147936</v>
       </c>
       <c r="X38" t="n">
-        <v>420.3951160499882</v>
+        <v>540.6484345147936</v>
       </c>
       <c r="Y38" t="n">
-        <v>420.3951160499882</v>
+        <v>540.6484345147936</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>267.5936696083323</v>
+        <v>283.8677335967573</v>
       </c>
       <c r="C39" t="n">
-        <v>267.5936696083323</v>
+        <v>147.3403511435266</v>
       </c>
       <c r="D39" t="n">
-        <v>267.5936696083323</v>
+        <v>147.3403511435266</v>
       </c>
       <c r="E39" t="n">
-        <v>200.2391601917659</v>
+        <v>147.3403511435266</v>
       </c>
       <c r="F39" t="n">
-        <v>200.2391601917659</v>
+        <v>10.81296869029587</v>
       </c>
       <c r="G39" t="n">
-        <v>63.71177773853515</v>
+        <v>10.81296869029587</v>
       </c>
       <c r="H39" t="n">
-        <v>63.71177773853515</v>
+        <v>10.81296869029587</v>
       </c>
       <c r="I39" t="n">
-        <v>10.81296869029588</v>
+        <v>10.81296869029587</v>
       </c>
       <c r="J39" t="n">
-        <v>10.81296869029588</v>
+        <v>10.81296869029587</v>
       </c>
       <c r="K39" t="n">
-        <v>10.81296869029588</v>
+        <v>10.81296869029587</v>
       </c>
       <c r="L39" t="n">
-        <v>104.8138396595062</v>
+        <v>94.97231622953043</v>
       </c>
       <c r="M39" t="n">
-        <v>233.8652905181943</v>
+        <v>224.0237670882185</v>
       </c>
       <c r="N39" t="n">
-        <v>357.8342546306301</v>
+        <v>357.8342546306299</v>
       </c>
       <c r="O39" t="n">
-        <v>469.9770337958942</v>
+        <v>469.977033795894</v>
       </c>
       <c r="P39" t="n">
-        <v>540.6484345147938</v>
+        <v>540.6484345147936</v>
       </c>
       <c r="Q39" t="n">
-        <v>540.6484345147938</v>
+        <v>540.6484345147936</v>
       </c>
       <c r="R39" t="n">
-        <v>540.6484345147938</v>
+        <v>540.6484345147936</v>
       </c>
       <c r="S39" t="n">
-        <v>540.6484345147938</v>
+        <v>540.6484345147936</v>
       </c>
       <c r="T39" t="n">
-        <v>404.1210520615631</v>
+        <v>540.6484345147936</v>
       </c>
       <c r="U39" t="n">
-        <v>404.1210520615631</v>
+        <v>540.6484345147936</v>
       </c>
       <c r="V39" t="n">
-        <v>404.1210520615631</v>
+        <v>540.6484345147936</v>
       </c>
       <c r="W39" t="n">
-        <v>404.1210520615631</v>
+        <v>540.6484345147936</v>
       </c>
       <c r="X39" t="n">
-        <v>267.5936696083323</v>
+        <v>540.6484345147936</v>
       </c>
       <c r="Y39" t="n">
-        <v>267.5936696083323</v>
+        <v>404.1210520615629</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>120.293477741744</v>
+        <v>10.81296869029587</v>
       </c>
       <c r="C40" t="n">
-        <v>120.293477741744</v>
+        <v>10.81296869029587</v>
       </c>
       <c r="D40" t="n">
-        <v>120.293477741744</v>
+        <v>10.81296869029587</v>
       </c>
       <c r="E40" t="n">
-        <v>120.293477741744</v>
+        <v>10.81296869029587</v>
       </c>
       <c r="F40" t="n">
-        <v>120.293477741744</v>
+        <v>10.81296869029587</v>
       </c>
       <c r="G40" t="n">
-        <v>120.293477741744</v>
+        <v>10.81296869029587</v>
       </c>
       <c r="H40" t="n">
-        <v>120.293477741744</v>
+        <v>10.81296869029587</v>
       </c>
       <c r="I40" t="n">
-        <v>40.72796219343611</v>
+        <v>10.81296869029587</v>
       </c>
       <c r="J40" t="n">
-        <v>10.81296869029588</v>
+        <v>10.81296869029587</v>
       </c>
       <c r="K40" t="n">
-        <v>10.81296869029588</v>
+        <v>10.81296869029587</v>
       </c>
       <c r="L40" t="n">
-        <v>144.6234562327074</v>
+        <v>144.6234562327073</v>
       </c>
       <c r="M40" t="n">
-        <v>278.4339437751188</v>
+        <v>278.4339437751187</v>
       </c>
       <c r="N40" t="n">
-        <v>412.2444313175303</v>
+        <v>301.5778289581455</v>
       </c>
       <c r="O40" t="n">
-        <v>540.6484345147938</v>
+        <v>435.3883165005569</v>
       </c>
       <c r="P40" t="n">
-        <v>540.6484345147938</v>
+        <v>540.6484345147936</v>
       </c>
       <c r="Q40" t="n">
-        <v>529.8756251014363</v>
+        <v>540.6484345147936</v>
       </c>
       <c r="R40" t="n">
-        <v>393.3482426482055</v>
+        <v>540.6484345147936</v>
       </c>
       <c r="S40" t="n">
-        <v>256.8208601949748</v>
+        <v>540.6484345147936</v>
       </c>
       <c r="T40" t="n">
-        <v>120.293477741744</v>
+        <v>540.6484345147936</v>
       </c>
       <c r="U40" t="n">
-        <v>120.293477741744</v>
+        <v>404.1210520615629</v>
       </c>
       <c r="V40" t="n">
-        <v>120.293477741744</v>
+        <v>267.5936696083321</v>
       </c>
       <c r="W40" t="n">
-        <v>120.293477741744</v>
+        <v>131.0662871551014</v>
       </c>
       <c r="X40" t="n">
-        <v>120.293477741744</v>
+        <v>131.0662871551014</v>
       </c>
       <c r="Y40" t="n">
-        <v>120.293477741744</v>
+        <v>10.81296869029587</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>10.81296869029588</v>
+        <v>267.5936696083321</v>
       </c>
       <c r="C41" t="n">
-        <v>10.81296869029588</v>
+        <v>267.5936696083321</v>
       </c>
       <c r="D41" t="n">
-        <v>10.81296869029588</v>
+        <v>267.5936696083321</v>
       </c>
       <c r="E41" t="n">
-        <v>10.81296869029588</v>
+        <v>267.5936696083321</v>
       </c>
       <c r="F41" t="n">
-        <v>10.81296869029588</v>
+        <v>267.5936696083321</v>
       </c>
       <c r="G41" t="n">
-        <v>10.81296869029588</v>
+        <v>147.3403511435266</v>
       </c>
       <c r="H41" t="n">
-        <v>10.81296869029588</v>
+        <v>10.81296869029587</v>
       </c>
       <c r="I41" t="n">
-        <v>10.81296869029588</v>
+        <v>10.81296869029587</v>
       </c>
       <c r="J41" t="n">
-        <v>10.81296869029588</v>
+        <v>10.81296869029587</v>
       </c>
       <c r="K41" t="n">
-        <v>46.04290076965049</v>
+        <v>46.04290076965078</v>
       </c>
       <c r="L41" t="n">
-        <v>126.6505086157217</v>
+        <v>126.6505086157216</v>
       </c>
       <c r="M41" t="n">
-        <v>248.011441211837</v>
+        <v>248.0114412118368</v>
       </c>
       <c r="N41" t="n">
-        <v>375.9499289551388</v>
+        <v>375.9499289551387</v>
       </c>
       <c r="O41" t="n">
-        <v>483.4233537753015</v>
+        <v>483.4233537753013</v>
       </c>
       <c r="P41" t="n">
-        <v>540.6484345147938</v>
+        <v>540.6484345147936</v>
       </c>
       <c r="Q41" t="n">
-        <v>540.6484345147938</v>
+        <v>540.6484345147936</v>
       </c>
       <c r="R41" t="n">
-        <v>540.6484345147938</v>
+        <v>540.6484345147936</v>
       </c>
       <c r="S41" t="n">
-        <v>404.1210520615631</v>
+        <v>540.6484345147936</v>
       </c>
       <c r="T41" t="n">
-        <v>267.5936696083323</v>
+        <v>540.6484345147936</v>
       </c>
       <c r="U41" t="n">
-        <v>131.0662871551015</v>
+        <v>404.1210520615629</v>
       </c>
       <c r="V41" t="n">
-        <v>10.81296869029588</v>
+        <v>404.1210520615629</v>
       </c>
       <c r="W41" t="n">
-        <v>10.81296869029588</v>
+        <v>267.5936696083321</v>
       </c>
       <c r="X41" t="n">
-        <v>10.81296869029588</v>
+        <v>267.5936696083321</v>
       </c>
       <c r="Y41" t="n">
-        <v>10.81296869029588</v>
+        <v>267.5936696083321</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>540.6484345147938</v>
+        <v>10.81296869029587</v>
       </c>
       <c r="C42" t="n">
-        <v>420.3951160499882</v>
+        <v>10.81296869029587</v>
       </c>
       <c r="D42" t="n">
-        <v>283.8677335967575</v>
+        <v>10.81296869029587</v>
       </c>
       <c r="E42" t="n">
-        <v>147.3403511435267</v>
+        <v>10.81296869029587</v>
       </c>
       <c r="F42" t="n">
-        <v>10.81296869029588</v>
+        <v>10.81296869029587</v>
       </c>
       <c r="G42" t="n">
-        <v>10.81296869029588</v>
+        <v>10.81296869029587</v>
       </c>
       <c r="H42" t="n">
-        <v>10.81296869029588</v>
+        <v>10.81296869029587</v>
       </c>
       <c r="I42" t="n">
-        <v>10.81296869029588</v>
+        <v>10.81296869029587</v>
       </c>
       <c r="J42" t="n">
-        <v>10.81296869029588</v>
+        <v>10.81296869029587</v>
       </c>
       <c r="K42" t="n">
-        <v>10.81296869029588</v>
+        <v>10.81296869029587</v>
       </c>
       <c r="L42" t="n">
-        <v>104.8138396595062</v>
+        <v>94.97231622953043</v>
       </c>
       <c r="M42" t="n">
-        <v>233.8652905181943</v>
+        <v>224.0237670882185</v>
       </c>
       <c r="N42" t="n">
-        <v>367.6757780606058</v>
+        <v>357.8342546306299</v>
       </c>
       <c r="O42" t="n">
-        <v>469.9770337958942</v>
+        <v>469.977033795894</v>
       </c>
       <c r="P42" t="n">
-        <v>540.6484345147938</v>
+        <v>540.6484345147936</v>
       </c>
       <c r="Q42" t="n">
-        <v>540.6484345147938</v>
+        <v>540.6484345147936</v>
       </c>
       <c r="R42" t="n">
-        <v>540.6484345147938</v>
+        <v>540.6484345147936</v>
       </c>
       <c r="S42" t="n">
-        <v>540.6484345147938</v>
+        <v>404.1210520615629</v>
       </c>
       <c r="T42" t="n">
-        <v>540.6484345147938</v>
+        <v>404.1210520615629</v>
       </c>
       <c r="U42" t="n">
-        <v>540.6484345147938</v>
+        <v>404.1210520615629</v>
       </c>
       <c r="V42" t="n">
-        <v>540.6484345147938</v>
+        <v>267.5936696083321</v>
       </c>
       <c r="W42" t="n">
-        <v>540.6484345147938</v>
+        <v>131.0662871551014</v>
       </c>
       <c r="X42" t="n">
-        <v>540.6484345147938</v>
+        <v>131.0662871551014</v>
       </c>
       <c r="Y42" t="n">
-        <v>540.6484345147938</v>
+        <v>131.0662871551014</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>10.81296869029588</v>
+        <v>10.81296869029587</v>
       </c>
       <c r="C43" t="n">
-        <v>10.81296869029588</v>
+        <v>10.81296869029587</v>
       </c>
       <c r="D43" t="n">
-        <v>10.81296869029588</v>
+        <v>10.81296869029587</v>
       </c>
       <c r="E43" t="n">
-        <v>10.81296869029588</v>
+        <v>10.81296869029587</v>
       </c>
       <c r="F43" t="n">
-        <v>10.81296869029588</v>
+        <v>10.81296869029587</v>
       </c>
       <c r="G43" t="n">
-        <v>10.81296869029588</v>
+        <v>10.81296869029587</v>
       </c>
       <c r="H43" t="n">
-        <v>10.81296869029588</v>
+        <v>10.81296869029587</v>
       </c>
       <c r="I43" t="n">
-        <v>10.81296869029588</v>
+        <v>10.81296869029587</v>
       </c>
       <c r="J43" t="n">
-        <v>10.81296869029588</v>
+        <v>10.81296869029587</v>
       </c>
       <c r="K43" t="n">
-        <v>10.81296869029588</v>
+        <v>92.46855607992538</v>
       </c>
       <c r="L43" t="n">
-        <v>33.95685387332264</v>
+        <v>157.5858712128666</v>
       </c>
       <c r="M43" t="n">
-        <v>167.7673414157341</v>
+        <v>291.396358755278</v>
       </c>
       <c r="N43" t="n">
-        <v>301.5778289581456</v>
+        <v>301.5778289581455</v>
       </c>
       <c r="O43" t="n">
-        <v>435.388316500557</v>
+        <v>435.3883165005569</v>
       </c>
       <c r="P43" t="n">
-        <v>540.6484345147938</v>
+        <v>540.6484345147936</v>
       </c>
       <c r="Q43" t="n">
-        <v>540.6484345147938</v>
+        <v>540.6484345147936</v>
       </c>
       <c r="R43" t="n">
-        <v>540.6484345147938</v>
+        <v>540.6484345147936</v>
       </c>
       <c r="S43" t="n">
-        <v>404.1210520615631</v>
+        <v>540.6484345147936</v>
       </c>
       <c r="T43" t="n">
-        <v>267.5936696083323</v>
+        <v>540.6484345147936</v>
       </c>
       <c r="U43" t="n">
-        <v>131.0662871551015</v>
+        <v>540.6484345147936</v>
       </c>
       <c r="V43" t="n">
-        <v>10.81296869029588</v>
+        <v>404.1210520615629</v>
       </c>
       <c r="W43" t="n">
-        <v>10.81296869029588</v>
+        <v>267.5936696083321</v>
       </c>
       <c r="X43" t="n">
-        <v>10.81296869029588</v>
+        <v>131.0662871551014</v>
       </c>
       <c r="Y43" t="n">
-        <v>10.81296869029588</v>
+        <v>10.81296869029587</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>267.5936696083323</v>
+        <v>131.0662871551014</v>
       </c>
       <c r="C44" t="n">
-        <v>267.5936696083323</v>
+        <v>10.81296869029587</v>
       </c>
       <c r="D44" t="n">
-        <v>147.3403511435267</v>
+        <v>10.81296869029587</v>
       </c>
       <c r="E44" t="n">
-        <v>147.3403511435267</v>
+        <v>10.81296869029587</v>
       </c>
       <c r="F44" t="n">
-        <v>10.81296869029588</v>
+        <v>10.81296869029587</v>
       </c>
       <c r="G44" t="n">
-        <v>10.81296869029588</v>
+        <v>10.81296869029587</v>
       </c>
       <c r="H44" t="n">
-        <v>10.81296869029588</v>
+        <v>10.81296869029587</v>
       </c>
       <c r="I44" t="n">
-        <v>10.81296869029588</v>
+        <v>10.81296869029587</v>
       </c>
       <c r="J44" t="n">
-        <v>10.81296869029588</v>
+        <v>10.81296869029587</v>
       </c>
       <c r="K44" t="n">
-        <v>46.04290076965081</v>
+        <v>46.04290076965071</v>
       </c>
       <c r="L44" t="n">
         <v>126.6505086157217</v>
       </c>
       <c r="M44" t="n">
-        <v>248.0114412118368</v>
+        <v>248.0114412118367</v>
       </c>
       <c r="N44" t="n">
-        <v>375.9499289551388</v>
+        <v>375.9499289551387</v>
       </c>
       <c r="O44" t="n">
-        <v>483.4233537753015</v>
+        <v>483.4233537753013</v>
       </c>
       <c r="P44" t="n">
-        <v>540.6484345147938</v>
+        <v>540.6484345147936</v>
       </c>
       <c r="Q44" t="n">
-        <v>540.6484345147938</v>
+        <v>540.6484345147936</v>
       </c>
       <c r="R44" t="n">
-        <v>540.6484345147938</v>
+        <v>540.6484345147936</v>
       </c>
       <c r="S44" t="n">
-        <v>540.6484345147938</v>
+        <v>540.6484345147936</v>
       </c>
       <c r="T44" t="n">
-        <v>540.6484345147938</v>
+        <v>540.6484345147936</v>
       </c>
       <c r="U44" t="n">
-        <v>540.6484345147938</v>
+        <v>540.6484345147936</v>
       </c>
       <c r="V44" t="n">
-        <v>540.6484345147938</v>
+        <v>540.6484345147936</v>
       </c>
       <c r="W44" t="n">
-        <v>540.6484345147938</v>
+        <v>404.1210520615629</v>
       </c>
       <c r="X44" t="n">
-        <v>404.1210520615631</v>
+        <v>404.1210520615629</v>
       </c>
       <c r="Y44" t="n">
-        <v>267.5936696083323</v>
+        <v>267.5936696083321</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>404.1210520615631</v>
+        <v>283.8677335967573</v>
       </c>
       <c r="C45" t="n">
-        <v>404.1210520615631</v>
+        <v>147.3403511435266</v>
       </c>
       <c r="D45" t="n">
-        <v>404.1210520615631</v>
+        <v>147.3403511435266</v>
       </c>
       <c r="E45" t="n">
-        <v>267.5936696083323</v>
+        <v>147.3403511435266</v>
       </c>
       <c r="F45" t="n">
-        <v>166.5896259617433</v>
+        <v>147.3403511435266</v>
       </c>
       <c r="G45" t="n">
-        <v>166.5896259617433</v>
+        <v>10.81296869029587</v>
       </c>
       <c r="H45" t="n">
-        <v>63.71177773853515</v>
+        <v>10.81296869029587</v>
       </c>
       <c r="I45" t="n">
-        <v>10.81296869029588</v>
+        <v>10.81296869029587</v>
       </c>
       <c r="J45" t="n">
-        <v>10.81296869029588</v>
+        <v>10.81296869029587</v>
       </c>
       <c r="K45" t="n">
-        <v>46.27146922083023</v>
+        <v>10.81296869029587</v>
       </c>
       <c r="L45" t="n">
-        <v>140.2723401900406</v>
+        <v>104.8138396595062</v>
       </c>
       <c r="M45" t="n">
-        <v>224.0237670882186</v>
+        <v>233.8652905181943</v>
       </c>
       <c r="N45" t="n">
-        <v>357.8342546306301</v>
+        <v>357.8342546306299</v>
       </c>
       <c r="O45" t="n">
-        <v>469.9770337958942</v>
+        <v>469.977033795894</v>
       </c>
       <c r="P45" t="n">
-        <v>540.6484345147938</v>
+        <v>540.6484345147936</v>
       </c>
       <c r="Q45" t="n">
-        <v>540.6484345147938</v>
+        <v>540.6484345147936</v>
       </c>
       <c r="R45" t="n">
-        <v>540.6484345147938</v>
+        <v>540.6484345147936</v>
       </c>
       <c r="S45" t="n">
-        <v>540.6484345147938</v>
+        <v>540.6484345147936</v>
       </c>
       <c r="T45" t="n">
-        <v>540.6484345147938</v>
+        <v>540.6484345147936</v>
       </c>
       <c r="U45" t="n">
-        <v>540.6484345147938</v>
+        <v>540.6484345147936</v>
       </c>
       <c r="V45" t="n">
-        <v>540.6484345147938</v>
+        <v>540.6484345147936</v>
       </c>
       <c r="W45" t="n">
-        <v>404.1210520615631</v>
+        <v>540.6484345147936</v>
       </c>
       <c r="X45" t="n">
-        <v>404.1210520615631</v>
+        <v>540.6484345147936</v>
       </c>
       <c r="Y45" t="n">
-        <v>404.1210520615631</v>
+        <v>420.395116049988</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>283.8677335967575</v>
+        <v>10.81296869029587</v>
       </c>
       <c r="C46" t="n">
-        <v>283.8677335967575</v>
+        <v>10.81296869029587</v>
       </c>
       <c r="D46" t="n">
-        <v>147.3403511435267</v>
+        <v>10.81296869029587</v>
       </c>
       <c r="E46" t="n">
-        <v>147.3403511435267</v>
+        <v>10.81296869029587</v>
       </c>
       <c r="F46" t="n">
-        <v>10.81296869029588</v>
+        <v>10.81296869029587</v>
       </c>
       <c r="G46" t="n">
-        <v>10.81296869029588</v>
+        <v>10.81296869029587</v>
       </c>
       <c r="H46" t="n">
-        <v>10.81296869029588</v>
+        <v>10.81296869029587</v>
       </c>
       <c r="I46" t="n">
-        <v>10.81296869029588</v>
+        <v>10.81296869029587</v>
       </c>
       <c r="J46" t="n">
-        <v>10.81296869029588</v>
+        <v>10.81296869029587</v>
       </c>
       <c r="K46" t="n">
-        <v>10.81296869029588</v>
+        <v>92.46855607992538</v>
       </c>
       <c r="L46" t="n">
-        <v>144.6234562327074</v>
+        <v>226.2790436223368</v>
       </c>
       <c r="M46" t="n">
-        <v>167.7673414157341</v>
+        <v>360.0895311647482</v>
       </c>
       <c r="N46" t="n">
-        <v>301.5778289581456</v>
+        <v>406.8379469723822</v>
       </c>
       <c r="O46" t="n">
-        <v>435.388316500557</v>
+        <v>540.6484345147936</v>
       </c>
       <c r="P46" t="n">
-        <v>540.6484345147938</v>
+        <v>540.6484345147936</v>
       </c>
       <c r="Q46" t="n">
-        <v>529.8756251014363</v>
+        <v>540.6484345147936</v>
       </c>
       <c r="R46" t="n">
-        <v>393.3482426482055</v>
+        <v>404.1210520615629</v>
       </c>
       <c r="S46" t="n">
-        <v>283.8677335967575</v>
+        <v>267.5936696083321</v>
       </c>
       <c r="T46" t="n">
-        <v>283.8677335967575</v>
+        <v>131.0662871551014</v>
       </c>
       <c r="U46" t="n">
-        <v>283.8677335967575</v>
+        <v>10.81296869029587</v>
       </c>
       <c r="V46" t="n">
-        <v>283.8677335967575</v>
+        <v>10.81296869029587</v>
       </c>
       <c r="W46" t="n">
-        <v>283.8677335967575</v>
+        <v>10.81296869029587</v>
       </c>
       <c r="X46" t="n">
-        <v>283.8677335967575</v>
+        <v>10.81296869029587</v>
       </c>
       <c r="Y46" t="n">
-        <v>283.8677335967575</v>
+        <v>10.81296869029587</v>
       </c>
     </row>
   </sheetData>
@@ -8219,16 +8219,16 @@
         <v>100.0299464227919</v>
       </c>
       <c r="L5" t="n">
-        <v>86.82148686318186</v>
+        <v>86.82148686318189</v>
       </c>
       <c r="M5" t="n">
-        <v>64.61630209323863</v>
+        <v>64.61630209323866</v>
       </c>
       <c r="N5" t="n">
         <v>61.00144891149961</v>
       </c>
       <c r="O5" t="n">
-        <v>71.0718992657024</v>
+        <v>71.07189926570237</v>
       </c>
       <c r="P5" t="n">
         <v>95.50771753390021</v>
@@ -8313,7 +8313,7 @@
         <v>37.54182911310821</v>
       </c>
       <c r="Q6" t="n">
-        <v>75.51914927829571</v>
+        <v>75.5191492782957</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8380,7 +8380,7 @@
         <v>71.94053294496764</v>
       </c>
       <c r="M7" t="n">
-        <v>72.56001021962938</v>
+        <v>72.56001021962936</v>
       </c>
       <c r="N7" t="n">
         <v>62.89780050171086</v>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>92.06191329280011</v>
+        <v>92.06191329280013</v>
       </c>
       <c r="K8" t="n">
         <v>86.72591490550931</v>
@@ -8459,7 +8459,7 @@
         <v>70.31665934305323</v>
       </c>
       <c r="M8" t="n">
-        <v>46.25150133729363</v>
+        <v>46.25150133729366</v>
       </c>
       <c r="N8" t="n">
         <v>42.33948647951536</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>73.83937108913167</v>
+        <v>73.83937108913169</v>
       </c>
       <c r="K9" t="n">
         <v>47.25897875440141</v>
@@ -8623,10 +8623,10 @@
         <v>55.71856618250388</v>
       </c>
       <c r="O10" t="n">
-        <v>71.98338581476828</v>
+        <v>71.9833858147683</v>
       </c>
       <c r="P10" t="n">
-        <v>80.84873837615825</v>
+        <v>80.84873837615827</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8848,7 +8848,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>106.7437663446525</v>
+        <v>24.26337504199645</v>
       </c>
       <c r="L13" t="n">
         <v>136.0029986279237</v>
@@ -8857,13 +8857,13 @@
         <v>132.757514267587</v>
       </c>
       <c r="N13" t="n">
-        <v>124.8777952924686</v>
+        <v>13.09334846480734</v>
       </c>
       <c r="O13" t="n">
-        <v>58.23966573151465</v>
+        <v>146.1811523322999</v>
       </c>
       <c r="P13" t="n">
-        <v>28.683211784509</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q13" t="n">
         <v>65.34295837775146</v>
@@ -9088,19 +9088,19 @@
         <v>24.26337504199645</v>
       </c>
       <c r="L16" t="n">
-        <v>130.5419033297945</v>
+        <v>136.0029986279238</v>
       </c>
       <c r="M16" t="n">
-        <v>132.757514267587</v>
+        <v>20.97306743992575</v>
       </c>
       <c r="N16" t="n">
-        <v>124.8777952924686</v>
+        <v>124.8777952924687</v>
       </c>
       <c r="O16" t="n">
-        <v>146.1811523322999</v>
+        <v>146.1811523323</v>
       </c>
       <c r="P16" t="n">
-        <v>28.683211784509</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q16" t="n">
         <v>65.34295837775146</v>
@@ -9325,19 +9325,19 @@
         <v>24.26337504199645</v>
       </c>
       <c r="L19" t="n">
-        <v>136.0029986279237</v>
+        <v>130.5419033297946</v>
       </c>
       <c r="M19" t="n">
-        <v>20.97306743992569</v>
+        <v>132.7575142675871</v>
       </c>
       <c r="N19" t="n">
-        <v>124.8777952924686</v>
+        <v>124.8777952924687</v>
       </c>
       <c r="O19" t="n">
-        <v>146.1811523322999</v>
+        <v>146.1811523323</v>
       </c>
       <c r="P19" t="n">
-        <v>135.0065633140411</v>
+        <v>28.683211784509</v>
       </c>
       <c r="Q19" t="n">
         <v>65.34295837775146</v>
@@ -9562,19 +9562,19 @@
         <v>24.26337504199645</v>
       </c>
       <c r="L22" t="n">
-        <v>136.0029986279237</v>
+        <v>130.5419033297946</v>
       </c>
       <c r="M22" t="n">
-        <v>132.757514267587</v>
+        <v>132.7575142675871</v>
       </c>
       <c r="N22" t="n">
-        <v>124.8777952924686</v>
+        <v>124.8777952924687</v>
       </c>
       <c r="O22" t="n">
-        <v>34.39670550463862</v>
+        <v>146.1811523323</v>
       </c>
       <c r="P22" t="n">
-        <v>135.0065633140411</v>
+        <v>28.683211784509</v>
       </c>
       <c r="Q22" t="n">
         <v>65.34295837775146</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>69.40705483168759</v>
+        <v>10.45226685978184</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9653,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>58.95478797190565</v>
       </c>
       <c r="Q23" t="n">
         <v>5.251610260883183</v>
@@ -9799,13 +9799,13 @@
         <v>24.26337504199645</v>
       </c>
       <c r="L25" t="n">
-        <v>150.8920904881755</v>
+        <v>144.8294157209453</v>
       </c>
       <c r="M25" t="n">
         <v>147.6466061278387</v>
       </c>
       <c r="N25" t="n">
-        <v>133.7042123854901</v>
+        <v>139.7668871527203</v>
       </c>
       <c r="O25" t="n">
         <v>161.0702441925516</v>
@@ -9890,10 +9890,10 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>58.95478797190587</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>5.251610260883183</v>
+        <v>64.20639823278896</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>25.23322475567417</v>
+        <v>25.23322475567419</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -10033,22 +10033,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>24.26337504199645</v>
+        <v>24.26337504199647</v>
       </c>
       <c r="L28" t="n">
-        <v>144.8294157209452</v>
+        <v>150.8920904881754</v>
       </c>
       <c r="M28" t="n">
-        <v>147.6466061278388</v>
+        <v>147.6466061278387</v>
       </c>
       <c r="N28" t="n">
-        <v>139.7668871527204</v>
+        <v>133.70421238549</v>
       </c>
       <c r="O28" t="n">
-        <v>161.0702441925517</v>
+        <v>161.0702441925516</v>
       </c>
       <c r="P28" t="n">
-        <v>28.683211784509</v>
+        <v>28.68321178450901</v>
       </c>
       <c r="Q28" t="n">
         <v>65.34295837775146</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>69.40705483168782</v>
+        <v>10.45226685978184</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>5.251610260883183</v>
+        <v>64.20639823278896</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>25.23322475567417</v>
+        <v>25.23322475567419</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10270,22 +10270,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>24.26337504199645</v>
+        <v>24.26337504199647</v>
       </c>
       <c r="L31" t="n">
-        <v>144.8294157209452</v>
+        <v>144.8294157209451</v>
       </c>
       <c r="M31" t="n">
-        <v>147.6466061278388</v>
+        <v>147.6466061278387</v>
       </c>
       <c r="N31" t="n">
-        <v>139.7668871527204</v>
+        <v>139.7668871527203</v>
       </c>
       <c r="O31" t="n">
-        <v>161.0702441925517</v>
+        <v>161.0702441925516</v>
       </c>
       <c r="P31" t="n">
-        <v>28.683211784509</v>
+        <v>28.68321178450901</v>
       </c>
       <c r="Q31" t="n">
         <v>65.34295837775146</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>10.45226685978184</v>
+        <v>41.94265494487405</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>27.46439988681357</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10367,7 +10367,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>64.20639823278904</v>
+        <v>5.251610260883211</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>25.23322475567417</v>
+        <v>25.23322475567419</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10507,22 +10507,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>24.26337504199645</v>
+        <v>24.26337504199647</v>
       </c>
       <c r="L34" t="n">
-        <v>144.8294157209452</v>
+        <v>144.8294157209451</v>
       </c>
       <c r="M34" t="n">
-        <v>147.6466061278388</v>
+        <v>147.6466061278387</v>
       </c>
       <c r="N34" t="n">
-        <v>139.7668871527204</v>
+        <v>139.7668871527203</v>
       </c>
       <c r="O34" t="n">
-        <v>161.0702441925517</v>
+        <v>161.0702441925516</v>
       </c>
       <c r="P34" t="n">
-        <v>28.683211784509</v>
+        <v>28.68321178450901</v>
       </c>
       <c r="Q34" t="n">
         <v>65.34295837775146</v>
@@ -10604,7 +10604,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>5.251610260883183</v>
+        <v>5.251610260883211</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>25.23322475567417</v>
+        <v>25.23322475567419</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10744,19 +10744,19 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>24.26337504199645</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L37" t="n">
-        <v>24.21855180026247</v>
+        <v>66.61595579007495</v>
       </c>
       <c r="M37" t="n">
-        <v>132.7575142675871</v>
+        <v>132.757514267587</v>
       </c>
       <c r="N37" t="n">
-        <v>124.8777952924687</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>146.1811523323</v>
+        <v>146.1811523322999</v>
       </c>
       <c r="P37" t="n">
         <v>135.0065633140411</v>
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>5.251610260883183</v>
+        <v>5.251610260883211</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>25.23322475567417</v>
+        <v>25.23322475567419</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10981,7 +10981,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>24.26337504199645</v>
+        <v>24.26337504199647</v>
       </c>
       <c r="L40" t="n">
         <v>136.0029986279237</v>
@@ -10990,13 +10990,13 @@
         <v>132.757514267587</v>
       </c>
       <c r="N40" t="n">
-        <v>124.8777952924686</v>
+        <v>13.09334846480734</v>
       </c>
       <c r="O40" t="n">
-        <v>140.7200570341707</v>
+        <v>146.1811523322999</v>
       </c>
       <c r="P40" t="n">
-        <v>28.683211784509</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q40" t="n">
         <v>65.34295837775146</v>
@@ -11078,7 +11078,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>5.251610260883183</v>
+        <v>5.251610260883211</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>25.23322475567417</v>
+        <v>25.23322475567419</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11218,16 +11218,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>24.26337504199645</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L43" t="n">
-        <v>24.21855180026242</v>
+        <v>66.61595579007495</v>
       </c>
       <c r="M43" t="n">
         <v>132.757514267587</v>
       </c>
       <c r="N43" t="n">
-        <v>124.8777952924686</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>146.1811523322999</v>
@@ -11315,7 +11315,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>5.251610260883183</v>
+        <v>5.251610260883211</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>25.23322475567417</v>
+        <v>25.23322475567419</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11455,22 +11455,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>24.26337504199645</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L46" t="n">
         <v>136.0029986279237</v>
       </c>
       <c r="M46" t="n">
-        <v>20.97306743992569</v>
+        <v>132.757514267587</v>
       </c>
       <c r="N46" t="n">
-        <v>124.8777952924686</v>
+        <v>36.93630869168331</v>
       </c>
       <c r="O46" t="n">
         <v>146.1811523322999</v>
       </c>
       <c r="P46" t="n">
-        <v>135.0065633140411</v>
+        <v>28.68321178450901</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -22796,7 +22796,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>14.3588981658848</v>
+        <v>14.35889816588482</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>14.25430980652214</v>
+        <v>14.25430980652213</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23267,16 +23267,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>285.6496973345318</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>278.1306595182054</v>
+        <v>413.2927681469039</v>
       </c>
       <c r="H11" t="n">
         <v>183.7280946946719</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>37.5461398355215</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,10 +23303,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>23.61037961400275</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>163.2178926076791</v>
+        <v>28.05578397898066</v>
       </c>
       <c r="T11" t="n">
         <v>214.2972086546997</v>
@@ -23315,7 +23315,7 @@
         <v>251.184855358378</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>192.5901498414364</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23334,7 +23334,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>31.37107502116888</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -23346,16 +23346,16 @@
         <v>22.48297182670248</v>
       </c>
       <c r="F12" t="n">
-        <v>9.907103764685417</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>1.105980112632665</v>
+        <v>136.2680887413311</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>35.16810541857531</v>
       </c>
       <c r="I12" t="n">
-        <v>35.1681054185753</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23403,7 +23403,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>70.5205871486059</v>
       </c>
     </row>
     <row r="13">
@@ -23422,7 +23422,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>11.27185401787071</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>10.25893939423278</v>
@@ -23431,10 +23431,10 @@
         <v>31.92726766683859</v>
       </c>
       <c r="H13" t="n">
-        <v>35.16031635875996</v>
+        <v>19.04899301021911</v>
       </c>
       <c r="I13" t="n">
-        <v>128.3368119077585</v>
+        <v>9.286026627600904</v>
       </c>
       <c r="J13" t="n">
         <v>29.61584356810882</v>
@@ -23504,13 +23504,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>285.6496973345318</v>
       </c>
       <c r="G14" t="n">
-        <v>413.2927681469039</v>
+        <v>278.1306595182054</v>
       </c>
       <c r="H14" t="n">
-        <v>318.8902033233704</v>
+        <v>183.7280946946719</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23540,16 +23540,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>23.61037961400275</v>
       </c>
       <c r="S14" t="n">
-        <v>65.60192381450221</v>
+        <v>163.2178926076791</v>
       </c>
       <c r="T14" t="n">
-        <v>79.13510002600125</v>
+        <v>214.2972086546997</v>
       </c>
       <c r="U14" t="n">
-        <v>116.0227467296795</v>
+        <v>251.184855358378</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23589,10 +23589,10 @@
         <v>136.2680887413311</v>
       </c>
       <c r="H15" t="n">
-        <v>101.849069740976</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>52.36982095775688</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,28 +23619,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>33.3869361696335</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>151.7075598465586</v>
+        <v>85.10049280606886</v>
       </c>
       <c r="T15" t="n">
-        <v>195.8299974680354</v>
+        <v>60.66788883933688</v>
       </c>
       <c r="U15" t="n">
-        <v>106.8198449309568</v>
+        <v>225.8706302111143</v>
       </c>
       <c r="V15" t="n">
-        <v>97.63847852072681</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>116.5328745322211</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>70.61087657477901</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>70.52058714860587</v>
       </c>
     </row>
     <row r="16">
@@ -23659,16 +23659,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>11.27185401787068</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>10.25893939423275</v>
       </c>
       <c r="G16" t="n">
-        <v>167.0893762955371</v>
+        <v>31.92726766683856</v>
       </c>
       <c r="H16" t="n">
-        <v>154.2111016389176</v>
+        <v>35.16031635875999</v>
       </c>
       <c r="I16" t="n">
         <v>128.3368119077585</v>
@@ -23698,16 +23698,16 @@
         <v>10.66508131922394</v>
       </c>
       <c r="R16" t="n">
-        <v>17.70325383146003</v>
+        <v>136.7540391116176</v>
       </c>
       <c r="S16" t="n">
-        <v>73.14200693899295</v>
+        <v>208.3041155676914</v>
       </c>
       <c r="T16" t="n">
-        <v>88.93117680346305</v>
+        <v>224.0932854321615</v>
       </c>
       <c r="U16" t="n">
-        <v>151.1077423789058</v>
+        <v>286.2698510076042</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23741,16 +23741,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>285.6496973345318</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>278.1306595182054</v>
+        <v>413.2927681469039</v>
       </c>
       <c r="H17" t="n">
-        <v>183.7280946946719</v>
+        <v>318.8902033233704</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>37.5461398355215</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,19 +23777,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>23.61037961400275</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>163.2178926076791</v>
       </c>
       <c r="T17" t="n">
-        <v>214.2972086546997</v>
+        <v>79.13510002600123</v>
       </c>
       <c r="U17" t="n">
-        <v>251.184855358378</v>
+        <v>116.0227467296795</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>192.5901498414364</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23820,10 +23820,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>9.907103764685388</v>
       </c>
       <c r="G18" t="n">
-        <v>69.66102170084146</v>
+        <v>1.105980112632636</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -23859,10 +23859,10 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>16.54545121786009</v>
+        <v>85.10049280606886</v>
       </c>
       <c r="T18" t="n">
-        <v>60.66788883933691</v>
+        <v>195.8299974680354</v>
       </c>
       <c r="U18" t="n">
         <v>225.8706302111143</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>71.44627622100366</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23899,7 +23899,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>10.25893939423275</v>
       </c>
       <c r="G19" t="n">
         <v>167.0893762955371</v>
@@ -23908,7 +23908,7 @@
         <v>154.2111016389176</v>
       </c>
       <c r="I19" t="n">
-        <v>128.3368119077585</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>29.61584356810882</v>
@@ -23932,10 +23932,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>10.66508131922394</v>
       </c>
       <c r="R19" t="n">
-        <v>136.7540391116176</v>
+        <v>10.87795711052007</v>
       </c>
       <c r="S19" t="n">
         <v>208.3041155676914</v>
@@ -23950,13 +23950,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>151.3608897078925</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>90.54754676033869</v>
+        <v>90.54754676033866</v>
       </c>
       <c r="Y19" t="n">
-        <v>83.42254472339633</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23966,28 +23966,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>247.5717330347821</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>219.5209329919845</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>246.7682614435633</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>413.2927681469039</v>
+        <v>278.1306595182054</v>
       </c>
       <c r="H20" t="n">
-        <v>318.8902033233704</v>
+        <v>223.4497976572155</v>
       </c>
       <c r="I20" t="n">
-        <v>13.93576022151873</v>
+        <v>132.9865455016763</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,7 +24014,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>23.61037961400275</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>163.2178926076791</v>
@@ -24032,10 +24032,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>234.5689920497705</v>
       </c>
       <c r="Y20" t="n">
-        <v>251.0758300273551</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24045,16 +24045,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>31.37107502116885</v>
       </c>
       <c r="C21" t="n">
-        <v>87.04464987779166</v>
+        <v>37.54639035961725</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>22.48297182670248</v>
+        <v>22.48297182670245</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -24093,10 +24093,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>33.3869361696335</v>
       </c>
       <c r="S21" t="n">
-        <v>151.7075598465586</v>
+        <v>32.65677456640095</v>
       </c>
       <c r="T21" t="n">
         <v>195.8299974680354</v>
@@ -24111,10 +24111,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>70.61087657477901</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>70.5205871486059</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>44.66987155323881</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24139,7 +24139,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>31.92726766683859</v>
+        <v>167.0893762955371</v>
       </c>
       <c r="H22" t="n">
         <v>154.2111016389176</v>
@@ -24175,16 +24175,16 @@
         <v>136.7540391116176</v>
       </c>
       <c r="S22" t="n">
-        <v>73.14200693899295</v>
+        <v>208.3041155676914</v>
       </c>
       <c r="T22" t="n">
-        <v>105.042500152004</v>
+        <v>88.93117680346302</v>
       </c>
       <c r="U22" t="n">
         <v>286.2698510076042</v>
       </c>
       <c r="V22" t="n">
-        <v>116.9755346951295</v>
+        <v>133.0868580436704</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24193,7 +24193,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>83.4225447233963</v>
       </c>
     </row>
     <row r="23">
@@ -24203,7 +24203,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>250.5687442728133</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24218,13 +24218,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>413.2927681469039</v>
+        <v>263.2415676579537</v>
       </c>
       <c r="H23" t="n">
-        <v>318.8902033233704</v>
+        <v>168.8390028344202</v>
       </c>
       <c r="I23" t="n">
-        <v>132.9865455016763</v>
+        <v>0.8214481110090333</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24257,19 +24257,19 @@
         <v>163.2178926076791</v>
       </c>
       <c r="T23" t="n">
-        <v>64.24600816574954</v>
+        <v>214.2972086546997</v>
       </c>
       <c r="U23" t="n">
-        <v>101.1336548694278</v>
+        <v>251.184855358378</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>199.1897682284628</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>219.6799001895189</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24294,7 +24294,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>136.2680887413311</v>
@@ -24333,22 +24333,22 @@
         <v>33.3869361696335</v>
       </c>
       <c r="S24" t="n">
-        <v>1.65635935760838</v>
+        <v>151.7075598465586</v>
       </c>
       <c r="T24" t="n">
         <v>195.8299974680354</v>
       </c>
       <c r="U24" t="n">
-        <v>75.81942972216416</v>
+        <v>225.8706302111143</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>82.7493866604751</v>
       </c>
       <c r="W24" t="n">
-        <v>101.6437826719694</v>
+        <v>114.547897674686</v>
       </c>
       <c r="X24" t="n">
-        <v>73.60788781281016</v>
+        <v>55.7217847145273</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24376,16 +24376,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.0893762955371</v>
+        <v>17.03817580658688</v>
       </c>
       <c r="H25" t="n">
-        <v>154.2111016389176</v>
+        <v>4.159901149967396</v>
       </c>
       <c r="I25" t="n">
-        <v>23.15547802709141</v>
+        <v>6.836795836315176</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>29.61584356810882</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>136.7540391116176</v>
       </c>
       <c r="S25" t="n">
         <v>208.3041155676914</v>
@@ -24421,7 +24421,7 @@
         <v>286.2698510076042</v>
       </c>
       <c r="V25" t="n">
-        <v>102.0864428348778</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>136.4717978476408</v>
@@ -24440,7 +24440,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>232.6826411745303</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24449,19 +24449,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>231.8791695833117</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>256.8248452527613</v>
       </c>
       <c r="G26" t="n">
-        <v>263.2415676579537</v>
+        <v>281.1276707562367</v>
       </c>
       <c r="H26" t="n">
-        <v>186.725105932703</v>
+        <v>318.8902033233704</v>
       </c>
       <c r="I26" t="n">
-        <v>132.9865455016763</v>
+        <v>132.9865455016764</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,19 +24488,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>23.61037961400275</v>
+        <v>23.61037961400277</v>
       </c>
       <c r="S26" t="n">
         <v>163.2178926076791</v>
       </c>
       <c r="T26" t="n">
-        <v>214.2972086546997</v>
+        <v>64.2460081657496</v>
       </c>
       <c r="U26" t="n">
         <v>251.184855358378</v>
       </c>
       <c r="V26" t="n">
-        <v>177.7010579811847</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24519,28 +24519,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>16.48198316091722</v>
       </c>
       <c r="C27" t="n">
-        <v>22.65729849936551</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>146.5660688197362</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>7.593879966450714</v>
+        <v>25.47998306473369</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>136.2680887413311</v>
       </c>
       <c r="H27" t="n">
         <v>101.849069740976</v>
       </c>
       <c r="I27" t="n">
-        <v>52.36982095775688</v>
+        <v>52.36982095775689</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,7 +24567,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>33.3869361696335</v>
+        <v>33.38693616963351</v>
       </c>
       <c r="S27" t="n">
         <v>151.7075598465586</v>
@@ -24576,13 +24576,13 @@
         <v>195.8299974680354</v>
       </c>
       <c r="U27" t="n">
-        <v>225.8706302111143</v>
+        <v>75.81942972216422</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>101.6437826719695</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -24601,19 +24601,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>17.19562060967772</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>12.83313778516418</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>34.92427890486968</v>
+        <v>167.0893762955371</v>
       </c>
       <c r="H28" t="n">
         <v>154.2111016389176</v>
@@ -24622,7 +24622,7 @@
         <v>128.3368119077585</v>
       </c>
       <c r="J28" t="n">
-        <v>29.61584356810882</v>
+        <v>29.61584356810883</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24652,13 +24652,13 @@
         <v>208.3041155676914</v>
       </c>
       <c r="T28" t="n">
-        <v>74.04208494321128</v>
+        <v>74.04208494321139</v>
       </c>
       <c r="U28" t="n">
-        <v>136.218650518654</v>
+        <v>286.2698510076042</v>
       </c>
       <c r="V28" t="n">
-        <v>102.0864428348778</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24680,13 +24680,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>233.1077943803402</v>
+        <v>215.2216912820574</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>231.8791695833116</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -24698,7 +24698,7 @@
         <v>318.8902033233704</v>
       </c>
       <c r="I29" t="n">
-        <v>132.9865455016763</v>
+        <v>24.43182772501184</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,10 +24725,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>23.61037961400275</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>163.2178926076791</v>
+        <v>13.166692118729</v>
       </c>
       <c r="T29" t="n">
         <v>214.2972086546997</v>
@@ -24737,16 +24737,16 @@
         <v>251.184855358378</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>177.7010579811848</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>219.6799001895188</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>236.1867381671034</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24756,13 +24756,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>16.48198316091711</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>22.65729849936551</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>15.27996817397138</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -24777,7 +24777,7 @@
         <v>101.849069740976</v>
       </c>
       <c r="I30" t="n">
-        <v>52.36982095775688</v>
+        <v>52.36982095775689</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24804,19 +24804,19 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>33.3869361696335</v>
+        <v>33.38693616963351</v>
       </c>
       <c r="S30" t="n">
-        <v>151.7075598465586</v>
+        <v>19.5424624558913</v>
       </c>
       <c r="T30" t="n">
-        <v>195.8299974680354</v>
+        <v>45.77879697908526</v>
       </c>
       <c r="U30" t="n">
-        <v>75.8194297221641</v>
+        <v>75.81942972216422</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>82.74938666047515</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
@@ -24838,10 +24838,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>17.19562060967772</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24853,13 +24853,13 @@
         <v>167.0893762955371</v>
       </c>
       <c r="H31" t="n">
-        <v>4.15990114996734</v>
+        <v>154.2111016389176</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>128.3368119077585</v>
       </c>
       <c r="J31" t="n">
-        <v>23.15547802709131</v>
+        <v>29.61584356810883</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>13.81829556943651</v>
       </c>
       <c r="S31" t="n">
-        <v>58.25291507874118</v>
+        <v>208.3041155676914</v>
       </c>
       <c r="T31" t="n">
         <v>224.0932854321615</v>
@@ -24898,7 +24898,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>136.4717978476409</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24914,10 +24914,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>232.6826411745305</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>233.1077943803403</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24935,7 +24935,7 @@
         <v>318.8902033233704</v>
       </c>
       <c r="I32" t="n">
-        <v>132.9865455016763</v>
+        <v>132.9865455016764</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,28 +24962,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>23.61037961400277</v>
       </c>
       <c r="S32" t="n">
-        <v>13.16669211872889</v>
+        <v>163.2178926076791</v>
       </c>
       <c r="T32" t="n">
-        <v>105.7424908780351</v>
+        <v>214.2972086546997</v>
       </c>
       <c r="U32" t="n">
-        <v>101.1336548694278</v>
+        <v>251.184855358378</v>
       </c>
       <c r="V32" t="n">
-        <v>177.7010579811847</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>199.1897682284629</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>236.1867381671035</v>
       </c>
     </row>
     <row r="33">
@@ -24996,25 +24996,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>22.65729849936551</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>7.593879966450714</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>100.9700729960735</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>52.36982095775688</v>
+        <v>52.36982095775689</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25041,10 +25041,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>33.3869361696335</v>
+        <v>33.38693616963351</v>
       </c>
       <c r="S33" t="n">
-        <v>151.7075598465586</v>
+        <v>1.656359357608437</v>
       </c>
       <c r="T33" t="n">
         <v>195.8299974680354</v>
@@ -25059,10 +25059,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>161.6738458061673</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>55.63149528835424</v>
       </c>
     </row>
     <row r="34">
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>29.78077969298718</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25087,16 +25087,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>17.03817580658682</v>
+        <v>167.0893762955371</v>
       </c>
       <c r="H34" t="n">
-        <v>8.748842870917542</v>
+        <v>154.2111016389176</v>
       </c>
       <c r="I34" t="n">
-        <v>128.3368119077585</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>29.61584356810882</v>
+        <v>29.61584356810883</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25117,16 +25117,16 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>10.66508131922394</v>
+        <v>6.836795836315159</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>136.7540391116176</v>
       </c>
       <c r="S34" t="n">
         <v>208.3041155676914</v>
       </c>
       <c r="T34" t="n">
-        <v>74.04208494321128</v>
+        <v>224.0932854321615</v>
       </c>
       <c r="U34" t="n">
         <v>286.2698510076042</v>
@@ -25135,10 +25135,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>136.4717978476409</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>75.65845490008704</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25157,22 +25157,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>219.5209329919845</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>287.8252604615539</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>413.2927681469039</v>
       </c>
       <c r="H35" t="n">
-        <v>318.8902033233704</v>
+        <v>183.728094694672</v>
       </c>
       <c r="I35" t="n">
-        <v>132.9865455016763</v>
+        <v>132.9865455016764</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,25 +25199,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>23.61037961400275</v>
+        <v>23.61037961400277</v>
       </c>
       <c r="S35" t="n">
-        <v>163.2178926076791</v>
+        <v>44.16710732752158</v>
       </c>
       <c r="T35" t="n">
         <v>214.2972086546997</v>
       </c>
       <c r="U35" t="n">
-        <v>116.0227467296795</v>
+        <v>251.184855358378</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>214.0788600887146</v>
       </c>
       <c r="X35" t="n">
-        <v>234.5689920497705</v>
+        <v>234.5689920497706</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25233,13 +25233,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>37.54639035961725</v>
+        <v>37.54639035961733</v>
       </c>
       <c r="D36" t="n">
-        <v>12.28295693594026</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>22.48297182670254</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25251,7 +25251,7 @@
         <v>101.849069740976</v>
       </c>
       <c r="I36" t="n">
-        <v>52.36982095775688</v>
+        <v>52.36982095775689</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25278,10 +25278,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>33.3869361696335</v>
+        <v>33.38693616963351</v>
       </c>
       <c r="S36" t="n">
-        <v>151.7075598465586</v>
+        <v>32.65677456640101</v>
       </c>
       <c r="T36" t="n">
         <v>195.8299974680354</v>
@@ -25296,10 +25296,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>70.61087657477898</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>86.63191049714676</v>
+        <v>70.52058714860596</v>
       </c>
     </row>
     <row r="37">
@@ -25312,28 +25312,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>32.08471246992934</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>13.45336438951387</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>38.04825868563556</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.0893762955371</v>
+        <v>41.21329429443971</v>
       </c>
       <c r="H37" t="n">
         <v>154.2111016389176</v>
       </c>
       <c r="I37" t="n">
-        <v>128.3368119077585</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>29.61584356810882</v>
+        <v>29.61584356810883</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,7 +25354,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>10.66508131922394</v>
       </c>
       <c r="R37" t="n">
         <v>136.7540391116176</v>
@@ -25363,13 +25363,13 @@
         <v>208.3041155676914</v>
       </c>
       <c r="T37" t="n">
-        <v>88.93117680346302</v>
+        <v>88.9311768034631</v>
       </c>
       <c r="U37" t="n">
         <v>286.2698510076042</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>116.9755346951296</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25391,25 +25391,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>246.22210649085</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>246.7682614435633</v>
+        <v>246.7682614435634</v>
       </c>
       <c r="F38" t="n">
         <v>271.713937113013</v>
       </c>
       <c r="G38" t="n">
-        <v>278.1306595182054</v>
+        <v>278.1306595182056</v>
       </c>
       <c r="H38" t="n">
         <v>318.8902033233704</v>
       </c>
       <c r="I38" t="n">
-        <v>132.9865455016763</v>
+        <v>132.9865455016764</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,7 +25436,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>23.61037961400277</v>
       </c>
       <c r="S38" t="n">
         <v>163.2178926076791</v>
@@ -25451,7 +25451,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>253.8005630512582</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -25467,28 +25467,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>47.48239836970986</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>37.54639035961733</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>90.96411613300022</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>9.907103764685473</v>
       </c>
       <c r="G39" t="n">
-        <v>1.105980112632665</v>
+        <v>136.2680887413311</v>
       </c>
       <c r="H39" t="n">
         <v>101.849069740976</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>52.36982095775689</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25515,13 +25515,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>33.3869361696335</v>
+        <v>33.38693616963351</v>
       </c>
       <c r="S39" t="n">
         <v>151.7075598465586</v>
       </c>
       <c r="T39" t="n">
-        <v>60.66788883933691</v>
+        <v>195.8299974680354</v>
       </c>
       <c r="U39" t="n">
         <v>225.8706302111143</v>
@@ -25533,10 +25533,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>70.61087657477901</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>70.52058714860596</v>
       </c>
     </row>
     <row r="40">
@@ -25567,10 +25567,10 @@
         <v>154.2111016389176</v>
       </c>
       <c r="I40" t="n">
-        <v>49.56695151493371</v>
+        <v>128.3368119077585</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>29.61584356810883</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25591,31 +25591,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>10.66508131922394</v>
       </c>
       <c r="R40" t="n">
-        <v>1.591930482919111</v>
+        <v>136.7540391116176</v>
       </c>
       <c r="S40" t="n">
-        <v>73.14200693899295</v>
+        <v>208.3041155676914</v>
       </c>
       <c r="T40" t="n">
-        <v>88.93117680346305</v>
+        <v>224.0932854321615</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2698510076042</v>
+        <v>151.1077423789058</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>116.9755346951296</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>151.3608897078926</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>99.53386807193735</v>
       </c>
     </row>
     <row r="41">
@@ -25640,13 +25640,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>413.2927681469039</v>
+        <v>294.2419828667465</v>
       </c>
       <c r="H41" t="n">
-        <v>318.8902033233704</v>
+        <v>183.728094694672</v>
       </c>
       <c r="I41" t="n">
-        <v>132.9865455016763</v>
+        <v>132.9865455016764</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,22 +25673,22 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>23.61037961400275</v>
+        <v>23.61037961400277</v>
       </c>
       <c r="S41" t="n">
-        <v>28.05578397898066</v>
+        <v>163.2178926076791</v>
       </c>
       <c r="T41" t="n">
-        <v>79.13510002600125</v>
+        <v>214.2972086546997</v>
       </c>
       <c r="U41" t="n">
-        <v>116.0227467296795</v>
+        <v>116.0227467296796</v>
       </c>
       <c r="V41" t="n">
-        <v>208.7014731899773</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>214.0788600887146</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25704,19 +25704,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>47.4823983697099</v>
       </c>
       <c r="C42" t="n">
-        <v>53.6577137081582</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>12.28295693594029</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>22.48297182670248</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>9.907103764685417</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>136.2680887413311</v>
@@ -25725,7 +25725,7 @@
         <v>101.849069740976</v>
       </c>
       <c r="I42" t="n">
-        <v>52.36982095775688</v>
+        <v>52.36982095775689</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25752,10 +25752,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>33.3869361696335</v>
+        <v>33.38693616963351</v>
       </c>
       <c r="S42" t="n">
-        <v>151.7075598465586</v>
+        <v>16.54545121786015</v>
       </c>
       <c r="T42" t="n">
         <v>195.8299974680354</v>
@@ -25764,10 +25764,10 @@
         <v>225.8706302111143</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>97.63847852072686</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>116.5328745322212</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -25807,7 +25807,7 @@
         <v>128.3368119077585</v>
       </c>
       <c r="J43" t="n">
-        <v>29.61584356810882</v>
+        <v>29.61584356810883</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25834,25 +25834,25 @@
         <v>136.7540391116176</v>
       </c>
       <c r="S43" t="n">
-        <v>73.14200693899295</v>
+        <v>208.3041155676914</v>
       </c>
       <c r="T43" t="n">
-        <v>88.93117680346305</v>
+        <v>224.0932854321615</v>
       </c>
       <c r="U43" t="n">
-        <v>151.1077423789058</v>
+        <v>286.2698510076042</v>
       </c>
       <c r="V43" t="n">
-        <v>133.0868580436704</v>
+        <v>116.9755346951296</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>151.3608897078926</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>90.54754676033875</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>99.53386807193735</v>
       </c>
     </row>
     <row r="44">
@@ -25862,19 +25862,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>247.5717330347822</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>246.2221064908501</v>
       </c>
       <c r="D44" t="n">
-        <v>235.6322563405254</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>271.713937113013</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>413.2927681469039</v>
@@ -25883,7 +25883,7 @@
         <v>318.8902033233704</v>
       </c>
       <c r="I44" t="n">
-        <v>132.9865455016763</v>
+        <v>132.9865455016764</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,7 +25910,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>23.61037961400275</v>
+        <v>23.61037961400277</v>
       </c>
       <c r="S44" t="n">
         <v>163.2178926076791</v>
@@ -25925,13 +25925,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>214.0788600887146</v>
       </c>
       <c r="X44" t="n">
-        <v>234.5689920497706</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>251.0758300273551</v>
+        <v>251.0758300273552</v>
       </c>
     </row>
     <row r="45">
@@ -25941,28 +25941,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>31.37107502116893</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>37.54639035961733</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>22.48297182670248</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>45.0752091832607</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.2680887413311</v>
+        <v>1.105980112632722</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>101.849069740976</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>52.36982095775689</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,7 +25989,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>33.3869361696335</v>
+        <v>33.38693616963351</v>
       </c>
       <c r="S45" t="n">
         <v>151.7075598465586</v>
@@ -26004,13 +26004,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>116.5328745322211</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>86.63191049714682</v>
       </c>
     </row>
     <row r="46">
@@ -26026,13 +26026,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>13.45336438951389</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>10.25893939423278</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>167.0893762955371</v>
@@ -26044,7 +26044,7 @@
         <v>128.3368119077585</v>
       </c>
       <c r="J46" t="n">
-        <v>29.61584356810882</v>
+        <v>29.61584356810883</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,19 +26065,19 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>10.66508131922394</v>
       </c>
       <c r="R46" t="n">
-        <v>1.591930482919111</v>
+        <v>1.591930482919167</v>
       </c>
       <c r="S46" t="n">
-        <v>99.91841160675784</v>
+        <v>73.14200693899301</v>
       </c>
       <c r="T46" t="n">
-        <v>224.0932854321615</v>
+        <v>88.9311768034631</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2698510076042</v>
+        <v>167.2190657274468</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>881849.4791971246</v>
+        <v>881849.4791971247</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>350692.7309394663</v>
+        <v>350692.7309394662</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>350692.7309394663</v>
+        <v>350692.7309394664</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>350692.7309394664</v>
+        <v>350692.7309394663</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>362698.9893561033</v>
+        <v>362698.9893561034</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>362698.9893561032</v>
+        <v>362698.9893561031</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>362698.9893561034</v>
+        <v>362698.9893561032</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>362698.9893561032</v>
+        <v>362698.9893561034</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>350692.7309394664</v>
+        <v>350692.7309394663</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>350692.7309394664</v>
+        <v>350692.7309394663</v>
       </c>
     </row>
   </sheetData>
@@ -26311,31 +26311,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>593975.3455698527</v>
+        <v>593975.3455698525</v>
       </c>
       <c r="C2" t="n">
-        <v>594029.8145386976</v>
+        <v>594029.8145386983</v>
       </c>
       <c r="D2" t="n">
-        <v>594035.8503329167</v>
+        <v>594035.8503329169</v>
       </c>
       <c r="E2" t="n">
-        <v>237743.414049748</v>
+        <v>237743.4140497481</v>
       </c>
       <c r="F2" t="n">
         <v>237743.4140497481</v>
       </c>
       <c r="G2" t="n">
-        <v>237743.4140497481</v>
+        <v>237743.414049748</v>
       </c>
       <c r="H2" t="n">
-        <v>237743.414049748</v>
+        <v>237743.4140497482</v>
       </c>
       <c r="I2" t="n">
         <v>243859.5951068684</v>
       </c>
       <c r="J2" t="n">
-        <v>243859.5951068685</v>
+        <v>243859.5951068684</v>
       </c>
       <c r="K2" t="n">
         <v>243859.5951068684</v>
@@ -26344,16 +26344,16 @@
         <v>243859.5951068684</v>
       </c>
       <c r="M2" t="n">
-        <v>237743.4140497481</v>
+        <v>237743.414049748</v>
       </c>
       <c r="N2" t="n">
-        <v>237743.4140497481</v>
+        <v>237743.414049748</v>
       </c>
       <c r="O2" t="n">
-        <v>237743.4140497481</v>
+        <v>237743.414049748</v>
       </c>
       <c r="P2" t="n">
-        <v>237743.4140497481</v>
+        <v>237743.414049748</v>
       </c>
     </row>
     <row r="3">
@@ -26384,7 +26384,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3959.322196569995</v>
+        <v>3959.322196569987</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461720.8585193183</v>
+        <v>463150.7311021098</v>
       </c>
       <c r="C4" t="n">
-        <v>383319.4166389386</v>
+        <v>383917.1692412724</v>
       </c>
       <c r="D4" t="n">
-        <v>374974.1506631282</v>
+        <v>375482.0462084095</v>
       </c>
       <c r="E4" t="n">
-        <v>14513.73724951754</v>
+        <v>14689.93779297289</v>
       </c>
       <c r="F4" t="n">
-        <v>14513.73724951754</v>
+        <v>14689.93779297289</v>
       </c>
       <c r="G4" t="n">
-        <v>14513.73724951754</v>
+        <v>14689.93779297289</v>
       </c>
       <c r="H4" t="n">
-        <v>14513.73724951754</v>
+        <v>14689.93779297289</v>
       </c>
       <c r="I4" t="n">
-        <v>17845.27517081814</v>
+        <v>18062.09271017792</v>
       </c>
       <c r="J4" t="n">
-        <v>17845.27517081815</v>
+        <v>18062.09271017792</v>
       </c>
       <c r="K4" t="n">
-        <v>17845.27517081815</v>
+        <v>18062.09271017793</v>
       </c>
       <c r="L4" t="n">
-        <v>17845.27517081815</v>
+        <v>18062.09271017792</v>
       </c>
       <c r="M4" t="n">
-        <v>14513.73724951754</v>
+        <v>14689.93779297289</v>
       </c>
       <c r="N4" t="n">
-        <v>14513.73724951754</v>
+        <v>14689.93779297289</v>
       </c>
       <c r="O4" t="n">
-        <v>14513.73724951754</v>
+        <v>14689.93779297289</v>
       </c>
       <c r="P4" t="n">
-        <v>14513.73724951754</v>
+        <v>14689.93779297289</v>
       </c>
     </row>
     <row r="5">
@@ -26491,13 +26491,13 @@
         <v>20022.67438130338</v>
       </c>
       <c r="J5" t="n">
-        <v>20022.67438130338</v>
+        <v>20022.67438130337</v>
       </c>
       <c r="K5" t="n">
-        <v>20022.67438130338</v>
+        <v>20022.67438130337</v>
       </c>
       <c r="L5" t="n">
-        <v>20022.67438130338</v>
+        <v>20022.67438130337</v>
       </c>
       <c r="M5" t="n">
         <v>19117.41759620007</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>98626.88705053445</v>
+        <v>97197.01446774276</v>
       </c>
       <c r="C6" t="n">
-        <v>-41826.57920899423</v>
+        <v>-42424.33181132731</v>
       </c>
       <c r="D6" t="n">
-        <v>157467.9681830908</v>
+        <v>156960.0726378098</v>
       </c>
       <c r="E6" t="n">
-        <v>-28404.90453921196</v>
+        <v>-28581.10508266728</v>
       </c>
       <c r="F6" t="n">
-        <v>204112.2592040304</v>
+        <v>203936.0586605751</v>
       </c>
       <c r="G6" t="n">
-        <v>204112.2592040305</v>
+        <v>203936.0586605751</v>
       </c>
       <c r="H6" t="n">
-        <v>204112.2592040304</v>
+        <v>203936.0586605752</v>
       </c>
       <c r="I6" t="n">
-        <v>202032.3233581769</v>
+        <v>201815.5058188171</v>
       </c>
       <c r="J6" t="n">
-        <v>205991.645554747</v>
+        <v>205774.8280153871</v>
       </c>
       <c r="K6" t="n">
-        <v>205991.6455547469</v>
+        <v>205774.8280153871</v>
       </c>
       <c r="L6" t="n">
-        <v>205991.6455547469</v>
+        <v>205774.8280153871</v>
       </c>
       <c r="M6" t="n">
-        <v>174139.7423332663</v>
+        <v>173963.5417898108</v>
       </c>
       <c r="N6" t="n">
-        <v>204112.2592040304</v>
+        <v>203936.058660575</v>
       </c>
       <c r="O6" t="n">
-        <v>204112.2592040304</v>
+        <v>203936.058660575</v>
       </c>
       <c r="P6" t="n">
-        <v>204112.2592040305</v>
+        <v>203936.058660575</v>
       </c>
     </row>
   </sheetData>
@@ -26811,25 +26811,25 @@
         <v>150.0512004889502</v>
       </c>
       <c r="J4" t="n">
-        <v>150.0512004889502</v>
+        <v>150.0512004889501</v>
       </c>
       <c r="K4" t="n">
-        <v>150.0512004889502</v>
+        <v>150.0512004889501</v>
       </c>
       <c r="L4" t="n">
-        <v>150.0512004889502</v>
+        <v>150.0512004889501</v>
       </c>
       <c r="M4" t="n">
-        <v>135.1621086286985</v>
+        <v>135.1621086286984</v>
       </c>
       <c r="N4" t="n">
-        <v>135.1621086286985</v>
+        <v>135.1621086286984</v>
       </c>
       <c r="O4" t="n">
-        <v>135.1621086286985</v>
+        <v>135.1621086286984</v>
       </c>
       <c r="P4" t="n">
-        <v>135.1621086286985</v>
+        <v>135.1621086286984</v>
       </c>
     </row>
   </sheetData>
@@ -27030,7 +27030,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>14.88909186025171</v>
+        <v>14.88909186025168</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>84.01082088999308</v>
+        <v>84.0108208899931</v>
       </c>
       <c r="S8" t="n">
         <v>185.1290231762283</v>
@@ -28032,7 +28032,7 @@
         <v>141.3076148215571</v>
       </c>
       <c r="J10" t="n">
-        <v>60.10977774604451</v>
+        <v>60.10977774604452</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>46.78178798155719</v>
+        <v>46.7817879815572</v>
       </c>
       <c r="R10" t="n">
         <v>156.1475068297698</v>
@@ -31291,7 +31291,7 @@
         <v>120.0599046221887</v>
       </c>
       <c r="L5" t="n">
-        <v>148.9449281068054</v>
+        <v>148.9449281068053</v>
       </c>
       <c r="M5" t="n">
         <v>165.7299311340341</v>
@@ -31300,7 +31300,7 @@
         <v>168.4116146850913</v>
       </c>
       <c r="O5" t="n">
-        <v>159.0263121559843</v>
+        <v>159.0263121559844</v>
       </c>
       <c r="P5" t="n">
         <v>135.7252782213693</v>
@@ -31315,7 +31315,7 @@
         <v>21.50773917103957</v>
       </c>
       <c r="T5" t="n">
-        <v>4.131656751342871</v>
+        <v>4.131656751342872</v>
       </c>
       <c r="U5" t="n">
         <v>0.07550714794001816</v>
@@ -31385,7 +31385,7 @@
         <v>96.43257830122204</v>
       </c>
       <c r="Q6" t="n">
-        <v>64.4626248077258</v>
+        <v>64.46262480772582</v>
       </c>
       <c r="R6" t="n">
         <v>31.35420961992052</v>
@@ -31434,7 +31434,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.423373839243596</v>
+        <v>0.4233738392435961</v>
       </c>
       <c r="H7" t="n">
         <v>3.764178316183975</v>
@@ -31452,7 +31452,7 @@
         <v>62.94414333627064</v>
       </c>
       <c r="M7" t="n">
-        <v>66.36577372797568</v>
+        <v>66.36577372797569</v>
       </c>
       <c r="N7" t="n">
         <v>64.78774396352233</v>
@@ -31464,13 +31464,13 @@
         <v>51.20514142997091</v>
       </c>
       <c r="Q7" t="n">
-        <v>35.45178575702513</v>
+        <v>35.45178575702512</v>
       </c>
       <c r="R7" t="n">
         <v>19.03642735362569</v>
       </c>
       <c r="S7" t="n">
-        <v>7.378251362090667</v>
+        <v>7.378251362090666</v>
       </c>
       <c r="T7" t="n">
         <v>1.808960949495364</v>
@@ -31522,7 +31522,7 @@
         <v>40.41950923629976</v>
       </c>
       <c r="J8" t="n">
-        <v>88.98399123388617</v>
+        <v>88.98399123388616</v>
       </c>
       <c r="K8" t="n">
         <v>133.3639361394712</v>
@@ -31546,7 +31546,7 @@
         <v>113.2183977184739</v>
       </c>
       <c r="R8" t="n">
-        <v>65.8582970511566</v>
+        <v>65.85829705115658</v>
       </c>
       <c r="S8" t="n">
         <v>23.89104641001701</v>
@@ -31555,7 +31555,7 @@
         <v>4.589492294453073</v>
       </c>
       <c r="U8" t="n">
-        <v>0.08387421668903385</v>
+        <v>0.08387421668903383</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31595,7 +31595,7 @@
         <v>0.560958278245113</v>
       </c>
       <c r="H9" t="n">
-        <v>5.417676003051488</v>
+        <v>5.417676003051487</v>
       </c>
       <c r="I9" t="n">
         <v>19.31369510624622</v>
@@ -31628,7 +31628,7 @@
         <v>34.82862011770975</v>
       </c>
       <c r="S9" t="n">
-        <v>10.41955398407041</v>
+        <v>10.4195539840704</v>
       </c>
       <c r="T9" t="n">
         <v>2.261055516259907</v>
@@ -31680,7 +31680,7 @@
         <v>14.14286010570121</v>
       </c>
       <c r="J10" t="n">
-        <v>33.24940237062826</v>
+        <v>33.24940237062825</v>
       </c>
       <c r="K10" t="n">
         <v>54.63898190775737</v>
@@ -31695,13 +31695,13 @@
         <v>71.96697828272931</v>
       </c>
       <c r="O10" t="n">
-        <v>66.47315263707451</v>
+        <v>66.47315263707449</v>
       </c>
       <c r="P10" t="n">
-        <v>56.87926567298936</v>
+        <v>56.87926567298935</v>
       </c>
       <c r="Q10" t="n">
-        <v>39.38025527013719</v>
+        <v>39.38025527013718</v>
       </c>
       <c r="R10" t="n">
         <v>21.14588454739968</v>
@@ -31850,10 +31850,10 @@
         <v>272.4890347893801</v>
       </c>
       <c r="N12" t="n">
-        <v>266.5038207120318</v>
+        <v>220.7462207519206</v>
       </c>
       <c r="O12" t="n">
-        <v>210.114178994701</v>
+        <v>255.8717789548122</v>
       </c>
       <c r="P12" t="n">
         <v>205.359660665744</v>
@@ -32087,10 +32087,10 @@
         <v>272.4890347893801</v>
       </c>
       <c r="N15" t="n">
-        <v>266.5038207120318</v>
+        <v>220.7462207519207</v>
       </c>
       <c r="O15" t="n">
-        <v>210.114178994701</v>
+        <v>255.8717789548122</v>
       </c>
       <c r="P15" t="n">
         <v>205.359660665744</v>
@@ -32315,16 +32315,16 @@
         <v>101.6044019109925</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>173.6581061769189</v>
       </c>
       <c r="L18" t="n">
-        <v>223.563821738697</v>
+        <v>233.5047544962483</v>
       </c>
       <c r="M18" t="n">
         <v>272.4890347893801</v>
       </c>
       <c r="N18" t="n">
-        <v>266.5038207120318</v>
+        <v>220.7462207519207</v>
       </c>
       <c r="O18" t="n">
         <v>255.8717789548122</v>
@@ -32558,7 +32558,7 @@
         <v>233.5047544962483</v>
       </c>
       <c r="M21" t="n">
-        <v>226.7314348292689</v>
+        <v>272.4890347893801</v>
       </c>
       <c r="N21" t="n">
         <v>266.5038207120318</v>
@@ -32567,7 +32567,7 @@
         <v>255.8717789548122</v>
       </c>
       <c r="P21" t="n">
-        <v>205.359660665744</v>
+        <v>159.602060705633</v>
       </c>
       <c r="Q21" t="n">
         <v>137.2774946946533</v>
@@ -32935,13 +32935,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.0099693682311</v>
+        <v>2.009969368231099</v>
       </c>
       <c r="H26" t="n">
         <v>20.58459879239675</v>
       </c>
       <c r="I26" t="n">
-        <v>77.48934406872955</v>
+        <v>77.48934406872954</v>
       </c>
       <c r="J26" t="n">
         <v>170.5936376669044</v>
@@ -32956,13 +32956,13 @@
         <v>352.9330338294093</v>
       </c>
       <c r="N26" t="n">
-        <v>358.643859296896</v>
+        <v>358.6438592968959</v>
       </c>
       <c r="O26" t="n">
-        <v>338.657226391548</v>
+        <v>338.6572263915479</v>
       </c>
       <c r="P26" t="n">
-        <v>289.0361076133427</v>
+        <v>289.0361076133426</v>
       </c>
       <c r="Q26" t="n">
         <v>217.0540796135663</v>
@@ -32971,10 +32971,10 @@
         <v>126.2587383271469</v>
       </c>
       <c r="S26" t="n">
-        <v>45.80217697856623</v>
+        <v>45.80217697856622</v>
       </c>
       <c r="T26" t="n">
-        <v>8.798640909431644</v>
+        <v>8.798640909431642</v>
       </c>
       <c r="U26" t="n">
         <v>0.1607975494584879</v>
@@ -33020,7 +33020,7 @@
         <v>10.38637449552043</v>
       </c>
       <c r="I27" t="n">
-        <v>37.0268118936582</v>
+        <v>37.02681189365819</v>
       </c>
       <c r="J27" t="n">
         <v>101.6044019109925</v>
@@ -33032,7 +33032,7 @@
         <v>233.5047544962483</v>
       </c>
       <c r="M27" t="n">
-        <v>272.4890347893801</v>
+        <v>272.48903478938</v>
       </c>
       <c r="N27" t="n">
         <v>279.7010087238264</v>
@@ -33047,16 +33047,16 @@
         <v>137.2774946946533</v>
       </c>
       <c r="R27" t="n">
-        <v>66.77089798300963</v>
+        <v>66.77089798300962</v>
       </c>
       <c r="S27" t="n">
         <v>19.97561125727928</v>
       </c>
       <c r="T27" t="n">
-        <v>4.334731226786225</v>
+        <v>4.334731226786224</v>
       </c>
       <c r="U27" t="n">
-        <v>0.07075186986049339</v>
+        <v>0.07075186986049338</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,7 +33093,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.9016030629216967</v>
+        <v>0.9016030629216966</v>
       </c>
       <c r="H28" t="n">
         <v>8.016070868522</v>
@@ -33126,16 +33126,16 @@
         <v>75.49696193247044</v>
       </c>
       <c r="R28" t="n">
-        <v>40.53935226555192</v>
+        <v>40.53935226555191</v>
       </c>
       <c r="S28" t="n">
-        <v>15.71248246928084</v>
+        <v>15.71248246928083</v>
       </c>
       <c r="T28" t="n">
-        <v>3.852303996119976</v>
+        <v>3.852303996119975</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04917834888663806</v>
+        <v>0.04917834888663805</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,13 +33172,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.0099693682311</v>
+        <v>2.009969368231099</v>
       </c>
       <c r="H29" t="n">
         <v>20.58459879239675</v>
       </c>
       <c r="I29" t="n">
-        <v>77.48934406872955</v>
+        <v>77.48934406872954</v>
       </c>
       <c r="J29" t="n">
         <v>170.5936376669044</v>
@@ -33193,13 +33193,13 @@
         <v>352.9330338294093</v>
       </c>
       <c r="N29" t="n">
-        <v>358.643859296896</v>
+        <v>358.6438592968959</v>
       </c>
       <c r="O29" t="n">
-        <v>338.657226391548</v>
+        <v>338.6572263915479</v>
       </c>
       <c r="P29" t="n">
-        <v>289.0361076133427</v>
+        <v>289.0361076133426</v>
       </c>
       <c r="Q29" t="n">
         <v>217.0540796135663</v>
@@ -33208,10 +33208,10 @@
         <v>126.2587383271469</v>
       </c>
       <c r="S29" t="n">
-        <v>45.80217697856623</v>
+        <v>45.80217697856622</v>
       </c>
       <c r="T29" t="n">
-        <v>8.798640909431644</v>
+        <v>8.798640909431642</v>
       </c>
       <c r="U29" t="n">
         <v>0.1607975494584879</v>
@@ -33257,7 +33257,7 @@
         <v>10.38637449552043</v>
       </c>
       <c r="I30" t="n">
-        <v>37.0268118936582</v>
+        <v>37.02681189365819</v>
       </c>
       <c r="J30" t="n">
         <v>101.6044019109925</v>
@@ -33269,7 +33269,7 @@
         <v>233.5047544962483</v>
       </c>
       <c r="M30" t="n">
-        <v>272.4890347893801</v>
+        <v>272.48903478938</v>
       </c>
       <c r="N30" t="n">
         <v>279.7010087238264</v>
@@ -33284,16 +33284,16 @@
         <v>137.2774946946533</v>
       </c>
       <c r="R30" t="n">
-        <v>66.77089798300963</v>
+        <v>66.77089798300962</v>
       </c>
       <c r="S30" t="n">
         <v>19.97561125727928</v>
       </c>
       <c r="T30" t="n">
-        <v>4.334731226786225</v>
+        <v>4.334731226786224</v>
       </c>
       <c r="U30" t="n">
-        <v>0.07075186986049339</v>
+        <v>0.07075186986049338</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,7 +33330,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.9016030629216967</v>
+        <v>0.9016030629216966</v>
       </c>
       <c r="H31" t="n">
         <v>8.016070868522</v>
@@ -33363,16 +33363,16 @@
         <v>75.49696193247044</v>
       </c>
       <c r="R31" t="n">
-        <v>40.53935226555192</v>
+        <v>40.53935226555191</v>
       </c>
       <c r="S31" t="n">
-        <v>15.71248246928084</v>
+        <v>15.71248246928083</v>
       </c>
       <c r="T31" t="n">
-        <v>3.852303996119976</v>
+        <v>3.852303996119975</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04917834888663806</v>
+        <v>0.04917834888663805</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,13 +33409,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2.0099693682311</v>
+        <v>2.009969368231099</v>
       </c>
       <c r="H32" t="n">
         <v>20.58459879239675</v>
       </c>
       <c r="I32" t="n">
-        <v>77.48934406872955</v>
+        <v>77.48934406872954</v>
       </c>
       <c r="J32" t="n">
         <v>170.5936376669044</v>
@@ -33430,13 +33430,13 @@
         <v>352.9330338294093</v>
       </c>
       <c r="N32" t="n">
-        <v>358.643859296896</v>
+        <v>358.6438592968959</v>
       </c>
       <c r="O32" t="n">
-        <v>338.657226391548</v>
+        <v>338.6572263915479</v>
       </c>
       <c r="P32" t="n">
-        <v>289.0361076133427</v>
+        <v>289.0361076133426</v>
       </c>
       <c r="Q32" t="n">
         <v>217.0540796135663</v>
@@ -33445,10 +33445,10 @@
         <v>126.2587383271469</v>
       </c>
       <c r="S32" t="n">
-        <v>45.80217697856623</v>
+        <v>45.80217697856622</v>
       </c>
       <c r="T32" t="n">
-        <v>8.798640909431644</v>
+        <v>8.798640909431642</v>
       </c>
       <c r="U32" t="n">
         <v>0.1607975494584879</v>
@@ -33494,7 +33494,7 @@
         <v>10.38637449552043</v>
       </c>
       <c r="I33" t="n">
-        <v>37.0268118936582</v>
+        <v>37.02681189365819</v>
       </c>
       <c r="J33" t="n">
         <v>101.6044019109925</v>
@@ -33506,7 +33506,7 @@
         <v>233.5047544962483</v>
       </c>
       <c r="M33" t="n">
-        <v>272.4890347893801</v>
+        <v>272.48903478938</v>
       </c>
       <c r="N33" t="n">
         <v>279.7010087238264</v>
@@ -33521,16 +33521,16 @@
         <v>137.2774946946533</v>
       </c>
       <c r="R33" t="n">
-        <v>66.77089798300963</v>
+        <v>66.77089798300962</v>
       </c>
       <c r="S33" t="n">
         <v>19.97561125727928</v>
       </c>
       <c r="T33" t="n">
-        <v>4.334731226786225</v>
+        <v>4.334731226786224</v>
       </c>
       <c r="U33" t="n">
-        <v>0.07075186986049339</v>
+        <v>0.07075186986049338</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,7 +33567,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.9016030629216967</v>
+        <v>0.9016030629216966</v>
       </c>
       <c r="H34" t="n">
         <v>8.016070868522</v>
@@ -33600,16 +33600,16 @@
         <v>75.49696193247044</v>
       </c>
       <c r="R34" t="n">
-        <v>40.53935226555192</v>
+        <v>40.53935226555191</v>
       </c>
       <c r="S34" t="n">
-        <v>15.71248246928084</v>
+        <v>15.71248246928083</v>
       </c>
       <c r="T34" t="n">
-        <v>3.852303996119976</v>
+        <v>3.852303996119975</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04917834888663806</v>
+        <v>0.04917834888663805</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,13 +33646,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.0099693682311</v>
+        <v>2.009969368231099</v>
       </c>
       <c r="H35" t="n">
         <v>20.58459879239675</v>
       </c>
       <c r="I35" t="n">
-        <v>77.48934406872955</v>
+        <v>77.48934406872954</v>
       </c>
       <c r="J35" t="n">
         <v>170.5936376669044</v>
@@ -33667,13 +33667,13 @@
         <v>352.9330338294093</v>
       </c>
       <c r="N35" t="n">
-        <v>358.643859296896</v>
+        <v>358.6438592968959</v>
       </c>
       <c r="O35" t="n">
-        <v>338.657226391548</v>
+        <v>338.6572263915479</v>
       </c>
       <c r="P35" t="n">
-        <v>289.0361076133427</v>
+        <v>289.0361076133426</v>
       </c>
       <c r="Q35" t="n">
         <v>217.0540796135663</v>
@@ -33682,10 +33682,10 @@
         <v>126.2587383271469</v>
       </c>
       <c r="S35" t="n">
-        <v>45.80217697856623</v>
+        <v>45.80217697856622</v>
       </c>
       <c r="T35" t="n">
-        <v>8.798640909431644</v>
+        <v>8.798640909431642</v>
       </c>
       <c r="U35" t="n">
         <v>0.1607975494584879</v>
@@ -33731,25 +33731,25 @@
         <v>10.38637449552043</v>
       </c>
       <c r="I36" t="n">
-        <v>37.0268118936582</v>
+        <v>37.02681189365819</v>
       </c>
       <c r="J36" t="n">
         <v>101.6044019109925</v>
       </c>
       <c r="K36" t="n">
-        <v>173.6581061769189</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>233.5047544962483</v>
+        <v>223.563821738697</v>
       </c>
       <c r="M36" t="n">
-        <v>272.4890347893801</v>
+        <v>272.48903478938</v>
       </c>
       <c r="N36" t="n">
-        <v>266.5038207120318</v>
+        <v>266.5038207120317</v>
       </c>
       <c r="O36" t="n">
-        <v>210.1141789947011</v>
+        <v>255.8717789548122</v>
       </c>
       <c r="P36" t="n">
         <v>205.359660665744</v>
@@ -33758,16 +33758,16 @@
         <v>137.2774946946533</v>
       </c>
       <c r="R36" t="n">
-        <v>66.77089798300963</v>
+        <v>66.77089798300962</v>
       </c>
       <c r="S36" t="n">
         <v>19.97561125727928</v>
       </c>
       <c r="T36" t="n">
-        <v>4.334731226786225</v>
+        <v>4.334731226786224</v>
       </c>
       <c r="U36" t="n">
-        <v>0.07075186986049339</v>
+        <v>0.07075186986049338</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,7 +33804,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9016030629216967</v>
+        <v>0.9016030629216966</v>
       </c>
       <c r="H37" t="n">
         <v>8.016070868522</v>
@@ -33837,16 +33837,16 @@
         <v>75.49696193247044</v>
       </c>
       <c r="R37" t="n">
-        <v>40.53935226555192</v>
+        <v>40.53935226555191</v>
       </c>
       <c r="S37" t="n">
-        <v>15.71248246928084</v>
+        <v>15.71248246928083</v>
       </c>
       <c r="T37" t="n">
-        <v>3.852303996119976</v>
+        <v>3.852303996119975</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04917834888663806</v>
+        <v>0.04917834888663805</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,13 +33883,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.0099693682311</v>
+        <v>2.009969368231099</v>
       </c>
       <c r="H38" t="n">
         <v>20.58459879239675</v>
       </c>
       <c r="I38" t="n">
-        <v>77.48934406872955</v>
+        <v>77.48934406872954</v>
       </c>
       <c r="J38" t="n">
         <v>170.5936376669044</v>
@@ -33904,13 +33904,13 @@
         <v>352.9330338294093</v>
       </c>
       <c r="N38" t="n">
-        <v>358.643859296896</v>
+        <v>358.6438592968959</v>
       </c>
       <c r="O38" t="n">
-        <v>338.657226391548</v>
+        <v>338.6572263915479</v>
       </c>
       <c r="P38" t="n">
-        <v>289.0361076133427</v>
+        <v>289.0361076133426</v>
       </c>
       <c r="Q38" t="n">
         <v>217.0540796135663</v>
@@ -33919,10 +33919,10 @@
         <v>126.2587383271469</v>
       </c>
       <c r="S38" t="n">
-        <v>45.80217697856623</v>
+        <v>45.80217697856622</v>
       </c>
       <c r="T38" t="n">
-        <v>8.798640909431644</v>
+        <v>8.798640909431642</v>
       </c>
       <c r="U38" t="n">
         <v>0.1607975494584879</v>
@@ -33968,7 +33968,7 @@
         <v>10.38637449552043</v>
       </c>
       <c r="I39" t="n">
-        <v>37.0268118936582</v>
+        <v>37.02681189365819</v>
       </c>
       <c r="J39" t="n">
         <v>101.6044019109925</v>
@@ -33977,13 +33977,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>233.5047544962483</v>
+        <v>223.563821738697</v>
       </c>
       <c r="M39" t="n">
-        <v>272.4890347893801</v>
+        <v>272.48903478938</v>
       </c>
       <c r="N39" t="n">
-        <v>256.5628879544805</v>
+        <v>266.5038207120317</v>
       </c>
       <c r="O39" t="n">
         <v>255.8717789548122</v>
@@ -33995,16 +33995,16 @@
         <v>137.2774946946533</v>
       </c>
       <c r="R39" t="n">
-        <v>66.77089798300963</v>
+        <v>66.77089798300962</v>
       </c>
       <c r="S39" t="n">
         <v>19.97561125727928</v>
       </c>
       <c r="T39" t="n">
-        <v>4.334731226786225</v>
+        <v>4.334731226786224</v>
       </c>
       <c r="U39" t="n">
-        <v>0.07075186986049339</v>
+        <v>0.07075186986049338</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,7 +34041,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9016030629216967</v>
+        <v>0.9016030629216966</v>
       </c>
       <c r="H40" t="n">
         <v>8.016070868522</v>
@@ -34074,16 +34074,16 @@
         <v>75.49696193247044</v>
       </c>
       <c r="R40" t="n">
-        <v>40.53935226555192</v>
+        <v>40.53935226555191</v>
       </c>
       <c r="S40" t="n">
-        <v>15.71248246928084</v>
+        <v>15.71248246928083</v>
       </c>
       <c r="T40" t="n">
-        <v>3.852303996119976</v>
+        <v>3.852303996119975</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04917834888663806</v>
+        <v>0.04917834888663805</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,13 +34120,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.0099693682311</v>
+        <v>2.009969368231099</v>
       </c>
       <c r="H41" t="n">
         <v>20.58459879239675</v>
       </c>
       <c r="I41" t="n">
-        <v>77.48934406872955</v>
+        <v>77.48934406872954</v>
       </c>
       <c r="J41" t="n">
         <v>170.5936376669044</v>
@@ -34141,13 +34141,13 @@
         <v>352.9330338294093</v>
       </c>
       <c r="N41" t="n">
-        <v>358.643859296896</v>
+        <v>358.6438592968959</v>
       </c>
       <c r="O41" t="n">
-        <v>338.657226391548</v>
+        <v>338.6572263915479</v>
       </c>
       <c r="P41" t="n">
-        <v>289.0361076133427</v>
+        <v>289.0361076133426</v>
       </c>
       <c r="Q41" t="n">
         <v>217.0540796135663</v>
@@ -34156,10 +34156,10 @@
         <v>126.2587383271469</v>
       </c>
       <c r="S41" t="n">
-        <v>45.80217697856623</v>
+        <v>45.80217697856622</v>
       </c>
       <c r="T41" t="n">
-        <v>8.798640909431644</v>
+        <v>8.798640909431642</v>
       </c>
       <c r="U41" t="n">
         <v>0.1607975494584879</v>
@@ -34205,7 +34205,7 @@
         <v>10.38637449552043</v>
       </c>
       <c r="I42" t="n">
-        <v>37.0268118936582</v>
+        <v>37.02681189365819</v>
       </c>
       <c r="J42" t="n">
         <v>101.6044019109925</v>
@@ -34214,16 +34214,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>233.5047544962483</v>
+        <v>223.563821738697</v>
       </c>
       <c r="M42" t="n">
-        <v>272.4890347893801</v>
+        <v>272.48903478938</v>
       </c>
       <c r="N42" t="n">
-        <v>266.5038207120318</v>
+        <v>266.5038207120317</v>
       </c>
       <c r="O42" t="n">
-        <v>245.930846197261</v>
+        <v>255.8717789548122</v>
       </c>
       <c r="P42" t="n">
         <v>205.359660665744</v>
@@ -34232,16 +34232,16 @@
         <v>137.2774946946533</v>
       </c>
       <c r="R42" t="n">
-        <v>66.77089798300963</v>
+        <v>66.77089798300962</v>
       </c>
       <c r="S42" t="n">
         <v>19.97561125727928</v>
       </c>
       <c r="T42" t="n">
-        <v>4.334731226786225</v>
+        <v>4.334731226786224</v>
       </c>
       <c r="U42" t="n">
-        <v>0.07075186986049339</v>
+        <v>0.07075186986049338</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,7 +34278,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9016030629216967</v>
+        <v>0.9016030629216966</v>
       </c>
       <c r="H43" t="n">
         <v>8.016070868522</v>
@@ -34311,16 +34311,16 @@
         <v>75.49696193247044</v>
       </c>
       <c r="R43" t="n">
-        <v>40.53935226555192</v>
+        <v>40.53935226555191</v>
       </c>
       <c r="S43" t="n">
-        <v>15.71248246928084</v>
+        <v>15.71248246928083</v>
       </c>
       <c r="T43" t="n">
-        <v>3.852303996119976</v>
+        <v>3.852303996119975</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04917834888663806</v>
+        <v>0.04917834888663805</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,13 +34357,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.0099693682311</v>
+        <v>2.009969368231099</v>
       </c>
       <c r="H44" t="n">
         <v>20.58459879239675</v>
       </c>
       <c r="I44" t="n">
-        <v>77.48934406872955</v>
+        <v>77.48934406872954</v>
       </c>
       <c r="J44" t="n">
         <v>170.5936376669044</v>
@@ -34375,16 +34375,16 @@
         <v>317.1882410771295</v>
       </c>
       <c r="M44" t="n">
-        <v>352.9330338294092</v>
+        <v>352.9330338294093</v>
       </c>
       <c r="N44" t="n">
-        <v>358.643859296896</v>
+        <v>358.6438592968959</v>
       </c>
       <c r="O44" t="n">
-        <v>338.657226391548</v>
+        <v>338.6572263915479</v>
       </c>
       <c r="P44" t="n">
-        <v>289.0361076133427</v>
+        <v>289.0361076133426</v>
       </c>
       <c r="Q44" t="n">
         <v>217.0540796135663</v>
@@ -34393,10 +34393,10 @@
         <v>126.2587383271469</v>
       </c>
       <c r="S44" t="n">
-        <v>45.80217697856623</v>
+        <v>45.80217697856622</v>
       </c>
       <c r="T44" t="n">
-        <v>8.798640909431644</v>
+        <v>8.798640909431642</v>
       </c>
       <c r="U44" t="n">
         <v>0.1607975494584879</v>
@@ -34442,22 +34442,22 @@
         <v>10.38637449552043</v>
       </c>
       <c r="I45" t="n">
-        <v>37.0268118936582</v>
+        <v>37.02681189365819</v>
       </c>
       <c r="J45" t="n">
         <v>101.6044019109925</v>
       </c>
       <c r="K45" t="n">
-        <v>173.6581061769189</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>233.5047544962483</v>
       </c>
       <c r="M45" t="n">
-        <v>226.7314348292689</v>
+        <v>272.48903478938</v>
       </c>
       <c r="N45" t="n">
-        <v>266.5038207120318</v>
+        <v>256.5628879544804</v>
       </c>
       <c r="O45" t="n">
         <v>255.8717789548122</v>
@@ -34469,16 +34469,16 @@
         <v>137.2774946946533</v>
       </c>
       <c r="R45" t="n">
-        <v>66.77089798300963</v>
+        <v>66.77089798300962</v>
       </c>
       <c r="S45" t="n">
         <v>19.97561125727928</v>
       </c>
       <c r="T45" t="n">
-        <v>4.334731226786225</v>
+        <v>4.334731226786224</v>
       </c>
       <c r="U45" t="n">
-        <v>0.07075186986049339</v>
+        <v>0.07075186986049338</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,7 +34515,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.9016030629216967</v>
+        <v>0.9016030629216966</v>
       </c>
       <c r="H46" t="n">
         <v>8.016070868522</v>
@@ -34548,16 +34548,16 @@
         <v>75.49696193247044</v>
       </c>
       <c r="R46" t="n">
-        <v>40.53935226555192</v>
+        <v>40.53935226555191</v>
       </c>
       <c r="S46" t="n">
-        <v>15.71248246928084</v>
+        <v>15.71248246928083</v>
       </c>
       <c r="T46" t="n">
-        <v>3.852303996119976</v>
+        <v>3.852303996119975</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04917834888663806</v>
+        <v>0.04917834888663805</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35498,10 +35498,10 @@
         <v>130.3550008673618</v>
       </c>
       <c r="N12" t="n">
-        <v>135.1621086286985</v>
+        <v>89.40450866858725</v>
       </c>
       <c r="O12" t="n">
-        <v>67.51793455025661</v>
+        <v>113.2755345103678</v>
       </c>
       <c r="P12" t="n">
         <v>71.38525325141379</v>
@@ -35568,7 +35568,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>82.48039130265607</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>135.1621086286985</v>
@@ -35577,13 +35577,13 @@
         <v>135.1621086286985</v>
       </c>
       <c r="N13" t="n">
+        <v>23.37766180103715</v>
+      </c>
+      <c r="O13" t="n">
         <v>135.1621086286985</v>
       </c>
-      <c r="O13" t="n">
-        <v>47.22062202791318</v>
-      </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>106.3233515295321</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35735,10 +35735,10 @@
         <v>130.3550008673618</v>
       </c>
       <c r="N15" t="n">
-        <v>135.1621086286985</v>
+        <v>89.40450866858737</v>
       </c>
       <c r="O15" t="n">
-        <v>67.51793455025661</v>
+        <v>113.2755345103678</v>
       </c>
       <c r="P15" t="n">
         <v>71.38525325141379</v>
@@ -35808,10 +35808,10 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>129.7010133305693</v>
+        <v>135.1621086286985</v>
       </c>
       <c r="M16" t="n">
-        <v>135.1621086286985</v>
+        <v>23.37766180103718</v>
       </c>
       <c r="N16" t="n">
         <v>135.1621086286985</v>
@@ -35820,7 +35820,7 @@
         <v>135.1621086286985</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>106.3233515295321</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35899,7 +35899,7 @@
         <v>108.5590149698612</v>
       </c>
       <c r="P17" t="n">
-        <v>57.80311185807312</v>
+        <v>57.80311185807313</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35963,16 +35963,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>35.81666720255996</v>
       </c>
       <c r="L18" t="n">
-        <v>85.00944195882285</v>
+        <v>94.95037471637409</v>
       </c>
       <c r="M18" t="n">
         <v>130.3550008673618</v>
       </c>
       <c r="N18" t="n">
-        <v>135.1621086286985</v>
+        <v>89.40450866858737</v>
       </c>
       <c r="O18" t="n">
         <v>113.2755345103678</v>
@@ -36045,10 +36045,10 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
+        <v>129.7010133305693</v>
+      </c>
+      <c r="M19" t="n">
         <v>135.1621086286985</v>
-      </c>
-      <c r="M19" t="n">
-        <v>23.37766180103712</v>
       </c>
       <c r="N19" t="n">
         <v>135.1621086286985</v>
@@ -36057,7 +36057,7 @@
         <v>135.1621086286985</v>
       </c>
       <c r="P19" t="n">
-        <v>106.3233515295321</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36206,7 +36206,7 @@
         <v>94.95037471637409</v>
       </c>
       <c r="M21" t="n">
-        <v>84.59740090725055</v>
+        <v>130.3550008673618</v>
       </c>
       <c r="N21" t="n">
         <v>135.1621086286985</v>
@@ -36215,7 +36215,7 @@
         <v>113.2755345103678</v>
       </c>
       <c r="P21" t="n">
-        <v>71.38525325141379</v>
+        <v>25.62765329130274</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36282,7 +36282,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>135.1621086286985</v>
+        <v>129.7010133305693</v>
       </c>
       <c r="M22" t="n">
         <v>135.1621086286985</v>
@@ -36291,10 +36291,10 @@
         <v>135.1621086286985</v>
       </c>
       <c r="O22" t="n">
-        <v>23.37766180103715</v>
+        <v>135.1621086286985</v>
       </c>
       <c r="P22" t="n">
-        <v>106.3233515295321</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>58.95478797190574</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>35.5857899791464</v>
@@ -36373,7 +36373,7 @@
         <v>108.5590149698612</v>
       </c>
       <c r="P23" t="n">
-        <v>57.80311185807312</v>
+        <v>116.7578998299788</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36519,13 +36519,13 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>150.0512004889502</v>
+        <v>143.98852572172</v>
       </c>
       <c r="M25" t="n">
         <v>150.0512004889502</v>
       </c>
       <c r="N25" t="n">
-        <v>143.98852572172</v>
+        <v>150.0512004889502</v>
       </c>
       <c r="O25" t="n">
         <v>150.0512004889502</v>
@@ -36595,25 +36595,25 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>35.5857899791464</v>
+        <v>35.58578997914637</v>
       </c>
       <c r="L26" t="n">
-        <v>81.42182610714229</v>
+        <v>81.42182610714224</v>
       </c>
       <c r="M26" t="n">
-        <v>122.5868006021366</v>
+        <v>122.5868006021365</v>
       </c>
       <c r="N26" t="n">
-        <v>129.2307957003051</v>
+        <v>129.230795700305</v>
       </c>
       <c r="O26" t="n">
         <v>108.5590149698612</v>
       </c>
       <c r="P26" t="n">
-        <v>116.757899829979</v>
+        <v>57.80311185807307</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>58.95478797190575</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36674,22 +36674,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>35.81666720255996</v>
+        <v>35.81666720255993</v>
       </c>
       <c r="L27" t="n">
         <v>94.95037471637409</v>
       </c>
       <c r="M27" t="n">
-        <v>130.3550008673618</v>
+        <v>130.3550008673617</v>
       </c>
       <c r="N27" t="n">
         <v>148.3592966404931</v>
       </c>
       <c r="O27" t="n">
-        <v>113.2755345103678</v>
+        <v>113.2755345103677</v>
       </c>
       <c r="P27" t="n">
-        <v>71.38525325141379</v>
+        <v>71.38525325141376</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36756,16 +36756,16 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>143.9885257217199</v>
+        <v>150.0512004889501</v>
       </c>
       <c r="M28" t="n">
-        <v>150.0512004889502</v>
+        <v>150.0512004889501</v>
       </c>
       <c r="N28" t="n">
-        <v>150.0512004889502</v>
+        <v>143.9885257217198</v>
       </c>
       <c r="O28" t="n">
-        <v>150.0512004889502</v>
+        <v>150.0512004889501</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -36829,28 +36829,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>58.95478797190597</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>35.5857899791464</v>
+        <v>35.58578997914637</v>
       </c>
       <c r="L29" t="n">
-        <v>81.42182610714229</v>
+        <v>81.42182610714224</v>
       </c>
       <c r="M29" t="n">
-        <v>122.5868006021366</v>
+        <v>122.5868006021365</v>
       </c>
       <c r="N29" t="n">
-        <v>129.2307957003051</v>
+        <v>129.230795700305</v>
       </c>
       <c r="O29" t="n">
         <v>108.5590149698612</v>
       </c>
       <c r="P29" t="n">
-        <v>57.80311185807312</v>
+        <v>57.80311185807307</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>58.95478797190575</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36911,22 +36911,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>35.81666720255996</v>
+        <v>35.81666720255993</v>
       </c>
       <c r="L30" t="n">
         <v>94.95037471637409</v>
       </c>
       <c r="M30" t="n">
-        <v>130.3550008673618</v>
+        <v>130.3550008673617</v>
       </c>
       <c r="N30" t="n">
         <v>148.3592966404931</v>
       </c>
       <c r="O30" t="n">
-        <v>113.2755345103678</v>
+        <v>113.2755345103677</v>
       </c>
       <c r="P30" t="n">
-        <v>71.38525325141379</v>
+        <v>71.38525325141376</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36993,16 +36993,16 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>143.9885257217199</v>
+        <v>143.9885257217198</v>
       </c>
       <c r="M31" t="n">
-        <v>150.0512004889502</v>
+        <v>150.0512004889501</v>
       </c>
       <c r="N31" t="n">
-        <v>150.0512004889502</v>
+        <v>150.0512004889501</v>
       </c>
       <c r="O31" t="n">
-        <v>150.0512004889502</v>
+        <v>150.0512004889501</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -37066,28 +37066,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>31.4903880850922</v>
       </c>
       <c r="K32" t="n">
-        <v>35.5857899791464</v>
+        <v>35.58578997914637</v>
       </c>
       <c r="L32" t="n">
-        <v>81.42182610714229</v>
+        <v>81.42182610714224</v>
       </c>
       <c r="M32" t="n">
-        <v>122.5868006021366</v>
+        <v>150.0512004889501</v>
       </c>
       <c r="N32" t="n">
-        <v>129.2307957003051</v>
+        <v>129.230795700305</v>
       </c>
       <c r="O32" t="n">
         <v>108.5590149698612</v>
       </c>
       <c r="P32" t="n">
-        <v>57.80311185807312</v>
+        <v>57.80311185807307</v>
       </c>
       <c r="Q32" t="n">
-        <v>58.95478797190587</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37148,22 +37148,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>35.81666720255996</v>
+        <v>35.81666720255993</v>
       </c>
       <c r="L33" t="n">
         <v>94.95037471637409</v>
       </c>
       <c r="M33" t="n">
-        <v>130.3550008673618</v>
+        <v>130.3550008673617</v>
       </c>
       <c r="N33" t="n">
         <v>148.3592966404931</v>
       </c>
       <c r="O33" t="n">
-        <v>113.2755345103678</v>
+        <v>113.2755345103677</v>
       </c>
       <c r="P33" t="n">
-        <v>71.38525325141379</v>
+        <v>71.38525325141376</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37230,16 +37230,16 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>143.9885257217199</v>
+        <v>143.9885257217198</v>
       </c>
       <c r="M34" t="n">
-        <v>150.0512004889502</v>
+        <v>150.0512004889501</v>
       </c>
       <c r="N34" t="n">
-        <v>150.0512004889502</v>
+        <v>150.0512004889501</v>
       </c>
       <c r="O34" t="n">
-        <v>150.0512004889502</v>
+        <v>150.0512004889501</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -37306,22 +37306,22 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>35.5857899791464</v>
+        <v>35.58578997914637</v>
       </c>
       <c r="L35" t="n">
-        <v>81.42182610714229</v>
+        <v>81.42182610714224</v>
       </c>
       <c r="M35" t="n">
-        <v>122.5868006021366</v>
+        <v>122.5868006021365</v>
       </c>
       <c r="N35" t="n">
-        <v>129.2307957003051</v>
+        <v>129.230795700305</v>
       </c>
       <c r="O35" t="n">
         <v>108.5590149698612</v>
       </c>
       <c r="P35" t="n">
-        <v>57.80311185807312</v>
+        <v>57.80311185807307</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37385,22 +37385,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>35.81666720255996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>94.95037471637409</v>
+        <v>85.00944195882279</v>
       </c>
       <c r="M36" t="n">
-        <v>130.3550008673618</v>
+        <v>130.3550008673617</v>
       </c>
       <c r="N36" t="n">
-        <v>135.1621086286985</v>
+        <v>135.1621086286984</v>
       </c>
       <c r="O36" t="n">
-        <v>67.51793455025673</v>
+        <v>113.2755345103677</v>
       </c>
       <c r="P36" t="n">
-        <v>71.38525325141379</v>
+        <v>71.38525325141376</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37464,19 +37464,19 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>82.48039130265606</v>
       </c>
       <c r="L37" t="n">
-        <v>23.37766180103719</v>
+        <v>65.77506579084967</v>
       </c>
       <c r="M37" t="n">
-        <v>135.1621086286985</v>
+        <v>135.1621086286984</v>
       </c>
       <c r="N37" t="n">
-        <v>135.1621086286985</v>
+        <v>10.28431333622981</v>
       </c>
       <c r="O37" t="n">
-        <v>135.1621086286985</v>
+        <v>135.1621086286984</v>
       </c>
       <c r="P37" t="n">
         <v>106.3233515295321</v>
@@ -37543,22 +37543,22 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>35.5857899791464</v>
+        <v>35.58578997914637</v>
       </c>
       <c r="L38" t="n">
-        <v>81.42182610714229</v>
+        <v>81.42182610714224</v>
       </c>
       <c r="M38" t="n">
-        <v>122.5868006021366</v>
+        <v>122.5868006021365</v>
       </c>
       <c r="N38" t="n">
-        <v>129.2307957003051</v>
+        <v>129.230795700305</v>
       </c>
       <c r="O38" t="n">
         <v>108.5590149698612</v>
       </c>
       <c r="P38" t="n">
-        <v>57.80311185807312</v>
+        <v>57.80311185807307</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37625,19 +37625,19 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>94.95037471637409</v>
+        <v>85.00944195882279</v>
       </c>
       <c r="M39" t="n">
-        <v>130.3550008673618</v>
+        <v>130.3550008673617</v>
       </c>
       <c r="N39" t="n">
-        <v>125.2211758711472</v>
+        <v>135.1621086286984</v>
       </c>
       <c r="O39" t="n">
-        <v>113.2755345103678</v>
+        <v>113.2755345103677</v>
       </c>
       <c r="P39" t="n">
-        <v>71.38525325141379</v>
+        <v>71.38525325141376</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37704,19 +37704,19 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>135.1621086286985</v>
+        <v>135.1621086286984</v>
       </c>
       <c r="M40" t="n">
-        <v>135.1621086286985</v>
+        <v>135.1621086286984</v>
       </c>
       <c r="N40" t="n">
-        <v>135.1621086286985</v>
+        <v>23.37766180103715</v>
       </c>
       <c r="O40" t="n">
-        <v>129.7010133305693</v>
+        <v>135.1621086286984</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>106.3233515295321</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37780,22 +37780,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>35.5857899791464</v>
+        <v>35.58578997914637</v>
       </c>
       <c r="L41" t="n">
-        <v>81.42182610714229</v>
+        <v>81.42182610714224</v>
       </c>
       <c r="M41" t="n">
-        <v>122.5868006021366</v>
+        <v>122.5868006021365</v>
       </c>
       <c r="N41" t="n">
-        <v>129.2307957003051</v>
+        <v>129.230795700305</v>
       </c>
       <c r="O41" t="n">
         <v>108.5590149698612</v>
       </c>
       <c r="P41" t="n">
-        <v>57.80311185807312</v>
+        <v>57.80311185807307</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37862,19 +37862,19 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>94.95037471637409</v>
+        <v>85.00944195882279</v>
       </c>
       <c r="M42" t="n">
-        <v>130.3550008673618</v>
+        <v>130.3550008673617</v>
       </c>
       <c r="N42" t="n">
-        <v>135.1621086286985</v>
+        <v>135.1621086286984</v>
       </c>
       <c r="O42" t="n">
-        <v>103.3346017528166</v>
+        <v>113.2755345103677</v>
       </c>
       <c r="P42" t="n">
-        <v>71.38525325141379</v>
+        <v>71.38525325141376</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37938,19 +37938,19 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>82.48039130265606</v>
       </c>
       <c r="L43" t="n">
-        <v>23.37766180103714</v>
+        <v>65.77506579084967</v>
       </c>
       <c r="M43" t="n">
-        <v>135.1621086286985</v>
+        <v>135.1621086286984</v>
       </c>
       <c r="N43" t="n">
-        <v>135.1621086286985</v>
+        <v>10.28431333622981</v>
       </c>
       <c r="O43" t="n">
-        <v>135.1621086286985</v>
+        <v>135.1621086286984</v>
       </c>
       <c r="P43" t="n">
         <v>106.3233515295321</v>
@@ -38017,22 +38017,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>35.5857899791464</v>
+        <v>35.58578997914637</v>
       </c>
       <c r="L44" t="n">
-        <v>81.42182610714229</v>
+        <v>81.42182610714224</v>
       </c>
       <c r="M44" t="n">
         <v>122.5868006021365</v>
       </c>
       <c r="N44" t="n">
-        <v>129.2307957003051</v>
+        <v>129.230795700305</v>
       </c>
       <c r="O44" t="n">
         <v>108.5590149698612</v>
       </c>
       <c r="P44" t="n">
-        <v>57.80311185807312</v>
+        <v>57.80311185807307</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38096,22 +38096,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>35.81666720255996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>94.95037471637409</v>
       </c>
       <c r="M45" t="n">
-        <v>84.59740090725055</v>
+        <v>130.3550008673617</v>
       </c>
       <c r="N45" t="n">
-        <v>135.1621086286985</v>
+        <v>125.2211758711471</v>
       </c>
       <c r="O45" t="n">
-        <v>113.2755345103678</v>
+        <v>113.2755345103677</v>
       </c>
       <c r="P45" t="n">
-        <v>71.38525325141379</v>
+        <v>71.38525325141376</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38175,22 +38175,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>82.48039130265606</v>
       </c>
       <c r="L46" t="n">
-        <v>135.1621086286985</v>
+        <v>135.1621086286984</v>
       </c>
       <c r="M46" t="n">
-        <v>23.37766180103712</v>
+        <v>135.1621086286984</v>
       </c>
       <c r="N46" t="n">
-        <v>135.1621086286985</v>
+        <v>47.22062202791312</v>
       </c>
       <c r="O46" t="n">
-        <v>135.1621086286985</v>
+        <v>135.1621086286984</v>
       </c>
       <c r="P46" t="n">
-        <v>106.3233515295321</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
